--- a/doc/RGB_farbwerteSonnenaufgang.xlsx
+++ b/doc/RGB_farbwerteSonnenaufgang.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darvin Windlin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darvin Windlin\Documents\Projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0658F99-FB95-4F01-BB87-D0CB1E26432A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C0CF81-45C9-4324-A5A7-AC1E82B337FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{65B07C6F-0C0D-4F12-A361-1901765B9E28}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>0, 0, 0</t>
   </si>
@@ -211,13 +211,44 @@
   </si>
   <si>
     <t>R = 0 G = 1 B = 2  W = 5</t>
+  </si>
+  <si>
+    <t>Profisorischer Ablauf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verbesserter Ablauf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ende </t>
+  </si>
+  <si>
+    <t>R = 155 G = 147 B = 256.5 W = 250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +272,13 @@
     <font>
       <sz val="36"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -293,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -303,6 +341,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Eingabe" xfId="1" builtinId="20" customBuiltin="1"/>
@@ -618,775 +657,598 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBCCE95-6467-416E-A1AD-C6048230B3E9}">
-  <dimension ref="A1:XFD1048576"/>
+  <dimension ref="A5:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2">
-        <f>D1+5</f>
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <f>E1+1.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="F2" s="3">
-        <f>F1+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="G2">
-        <f>G1+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D23" si="0">D2+5</f>
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E23" si="1">E2+1.5</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F23" si="2">F2+0.5</f>
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G23" si="3">G2+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>D10+5</f>
+        <v>5</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>E10+1.5</f>
+        <v>1.5</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>F10+0.5</f>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+        <f>G10+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f t="shared" ref="D12:D32" si="0">D11+5</f>
+        <v>10</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" ref="E12:E32" si="1">E11+1.5</f>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
+        <f t="shared" ref="F12:F32" si="2">F11+0.5</f>
+        <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G12:G32" si="3">G11+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>4.5</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="1"/>
-        <v>19.5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>7.5</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="1"/>
-        <v>25.5</v>
+        <v>12</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="H19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="1"/>
-        <v>28.5</v>
+        <v>15</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="1"/>
-        <v>31.5</v>
+        <v>18</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="2"/>
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>19.5</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="D27" s="1">
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1">
         <v>110</v>
       </c>
-      <c r="E27">
+      <c r="E36">
         <v>33</v>
       </c>
-      <c r="F27">
+      <c r="F36">
         <v>11</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="1">
-        <f>D27+4.5</f>
+      <c r="D37" s="1">
+        <f>D36+4.5</f>
         <v>114.5</v>
       </c>
-      <c r="E28">
-        <f>E27+1.5</f>
+      <c r="E37">
+        <f>E36+1.5</f>
         <v>34.5</v>
       </c>
-      <c r="F28">
-        <f>F27+0</f>
+      <c r="F37">
+        <f>F36+0</f>
         <v>11</v>
       </c>
-      <c r="G28">
-        <f>G27+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="G37">
+        <f>G36+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" ref="D29:D41" si="4">D28+4.5</f>
+      <c r="D38" s="1">
+        <f t="shared" ref="D38:D50" si="4">D37+4.5</f>
         <v>119</v>
       </c>
-      <c r="E29">
-        <f t="shared" ref="E29:E41" si="5">E28+1.5</f>
+      <c r="E38">
+        <f t="shared" ref="E38:E50" si="5">E37+1.5</f>
         <v>36</v>
       </c>
-      <c r="F29">
-        <f t="shared" ref="F29:G41" si="6">F28+0</f>
+      <c r="F38">
+        <f t="shared" ref="F38:G50" si="6">F37+0</f>
         <v>11</v>
       </c>
-      <c r="G29">
+      <c r="G38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D39" s="1">
         <f t="shared" si="4"/>
         <v>123.5</v>
       </c>
-      <c r="E30">
+      <c r="E39">
         <f t="shared" si="5"/>
         <v>37.5</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="4"/>
-        <v>128</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="4"/>
-        <v>132.5</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="5"/>
-        <v>40.5</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="4"/>
-        <v>137</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="4"/>
-        <v>141.5</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="5"/>
-        <v>43.5</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="D35" s="1">
-        <f t="shared" si="4"/>
-        <v>146</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="4"/>
-        <v>150.5</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="5"/>
-        <v>46.5</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="D37" s="1">
-        <f t="shared" si="4"/>
-        <v>155</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="1">
-        <f t="shared" si="4"/>
-        <v>159.5</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="5"/>
-        <v>49.5</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="1">
-        <f t="shared" si="4"/>
-        <v>164</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="5"/>
-        <v>51</v>
       </c>
       <c r="F39">
         <f t="shared" si="6"/>
@@ -1398,13 +1260,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D40" s="1">
         <f t="shared" si="4"/>
-        <v>168.5</v>
+        <v>128</v>
       </c>
       <c r="E40">
         <f t="shared" si="5"/>
-        <v>52.5</v>
+        <v>39</v>
       </c>
       <c r="F40">
         <f t="shared" si="6"/>
@@ -1416,13 +1281,16 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D41" s="1">
         <f t="shared" si="4"/>
-        <v>173</v>
+        <v>132.5</v>
       </c>
       <c r="E41">
         <f t="shared" si="5"/>
-        <v>54</v>
+        <v>40.5</v>
       </c>
       <c r="F41">
         <f t="shared" si="6"/>
@@ -1433,255 +1301,252 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="4"/>
+        <v>141.5</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="5"/>
+        <v>43.5</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A44" s="1"/>
       <c r="D44" s="1">
-        <v>173</v>
+        <f t="shared" si="4"/>
+        <v>146</v>
       </c>
       <c r="E44">
-        <v>54</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="F44">
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="G44">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="4"/>
+        <v>150.5</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="5"/>
+        <v>46.5</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="D46" s="1">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="1">
+        <f t="shared" si="4"/>
+        <v>159.5</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="5"/>
+        <v>49.5</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="1">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="1">
+        <f t="shared" si="4"/>
+        <v>168.5</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="5"/>
+        <v>52.5</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="1">
+        <f t="shared" si="4"/>
+        <v>173</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="1">
+        <v>173</v>
+      </c>
+      <c r="E53">
+        <v>54</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="1">
-        <f>D44+3.5</f>
+      <c r="D54" s="1">
+        <f>D53+3.5</f>
         <v>176.5</v>
       </c>
-      <c r="E45">
-        <f>E44+5</f>
+      <c r="E54">
+        <f>E53+5</f>
         <v>59</v>
       </c>
-      <c r="F45">
-        <f>F44+0</f>
+      <c r="F54">
+        <f>F53+0</f>
         <v>11</v>
       </c>
-      <c r="G45">
-        <f>G44+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="G54">
+        <f>G53+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="1">
-        <f t="shared" ref="D46:D56" si="7">D45+3.5</f>
+      <c r="D55" s="1">
+        <f t="shared" ref="D55:D65" si="7">D54+3.5</f>
         <v>180</v>
       </c>
-      <c r="E46">
-        <f t="shared" ref="E46:E56" si="8">E45+5</f>
+      <c r="E55">
+        <f t="shared" ref="E55:E65" si="8">E54+5</f>
         <v>64</v>
       </c>
-      <c r="F46">
-        <f t="shared" ref="F46:G56" si="9">F45+0</f>
+      <c r="F55">
+        <f t="shared" ref="F55:G65" si="9">F54+0</f>
         <v>11</v>
       </c>
-      <c r="G46">
+      <c r="G55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D56" s="1">
         <f t="shared" si="7"/>
         <v>183.5</v>
       </c>
-      <c r="E47">
+      <c r="E56">
         <f t="shared" si="8"/>
         <v>69</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="7"/>
-        <v>187</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="8"/>
-        <v>74</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="7"/>
-        <v>190.5</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="8"/>
-        <v>79</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="7"/>
-        <v>194</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="D51" s="1">
-        <f t="shared" si="7"/>
-        <v>197.5</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="7"/>
-        <v>201</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="8"/>
-        <v>94</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="D53" s="1">
-        <f t="shared" si="7"/>
-        <v>204.5</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D54" s="1">
-        <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="8"/>
-        <v>104</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D55" s="1">
-        <f t="shared" si="7"/>
-        <v>211.5</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="8"/>
-        <v>109</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="1">
-        <f t="shared" si="7"/>
-        <v>215</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="8"/>
-        <v>114</v>
       </c>
       <c r="F56">
         <f t="shared" si="9"/>
@@ -1692,1534 +1557,1551 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="7"/>
+        <v>187</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="7"/>
+        <v>190.5</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59">
-        <v>215</v>
+        <v>25</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="7"/>
+        <v>194</v>
       </c>
       <c r="E59">
-        <v>114</v>
+        <f t="shared" si="8"/>
+        <v>84</v>
       </c>
       <c r="F59">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60">
-        <f>D59+2</f>
-        <v>217</v>
+      <c r="A60" s="1"/>
+      <c r="D60" s="1">
+        <f t="shared" si="7"/>
+        <v>197.5</v>
       </c>
       <c r="E60">
-        <f>E59+4</f>
-        <v>118</v>
+        <f t="shared" si="8"/>
+        <v>89</v>
       </c>
       <c r="F60">
-        <f>F59+4</f>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="G60">
-        <f>G59+0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="7"/>
+        <v>201</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="D62" s="1">
+        <f t="shared" si="7"/>
+        <v>204.5</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="1">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="1">
+        <f t="shared" si="7"/>
+        <v>211.5</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D65" s="1">
+        <f t="shared" si="7"/>
+        <v>215</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68">
+        <v>215</v>
+      </c>
+      <c r="E68">
+        <v>114</v>
+      </c>
+      <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69">
+        <f>D68+2</f>
+        <v>217</v>
+      </c>
+      <c r="E69">
+        <f>E68+4</f>
+        <v>118</v>
+      </c>
+      <c r="F69">
+        <f>F68+4</f>
+        <v>15</v>
+      </c>
+      <c r="G69">
+        <f>G68+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D61">
-        <f t="shared" ref="D61:D79" si="10">D60+2</f>
+      <c r="D70">
+        <f t="shared" ref="D70:D88" si="10">D69+2</f>
         <v>219</v>
       </c>
-      <c r="E61">
-        <f t="shared" ref="E61:E79" si="11">E60+4</f>
+      <c r="E70">
+        <f t="shared" ref="E70:E88" si="11">E69+4</f>
         <v>122</v>
       </c>
-      <c r="F61">
-        <f t="shared" ref="F61:F79" si="12">F60+4</f>
+      <c r="F70">
+        <f t="shared" ref="F70:F88" si="12">F69+4</f>
         <v>19</v>
       </c>
-      <c r="G61">
-        <f t="shared" ref="G61:G79" si="13">G60+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="G70">
+        <f t="shared" ref="G70:G88" si="13">G69+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D62">
+      <c r="D71">
         <f t="shared" si="10"/>
         <v>221</v>
       </c>
-      <c r="E62">
+      <c r="E71">
         <f t="shared" si="11"/>
         <v>126</v>
       </c>
-      <c r="F62">
+      <c r="F71">
         <f t="shared" si="12"/>
         <v>23</v>
       </c>
-      <c r="G62">
+      <c r="G71">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D63">
+      <c r="D72">
         <f t="shared" si="10"/>
         <v>223</v>
       </c>
-      <c r="E63">
+      <c r="E72">
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="F63">
+      <c r="F72">
         <f t="shared" si="12"/>
         <v>27</v>
       </c>
-      <c r="G63">
+      <c r="G72">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D64">
+      <c r="D73">
         <f t="shared" si="10"/>
         <v>225</v>
       </c>
-      <c r="E64">
+      <c r="E73">
         <f t="shared" si="11"/>
         <v>134</v>
       </c>
-      <c r="F64">
+      <c r="F73">
         <f t="shared" si="12"/>
         <v>31</v>
       </c>
-      <c r="G64">
+      <c r="G73">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D65">
+      <c r="D74">
         <f t="shared" si="10"/>
         <v>227</v>
       </c>
-      <c r="E65">
+      <c r="E74">
         <f t="shared" si="11"/>
         <v>138</v>
       </c>
-      <c r="F65">
+      <c r="F74">
         <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="G65">
+      <c r="G74">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D66">
+      <c r="D75">
         <f t="shared" si="10"/>
         <v>229</v>
       </c>
-      <c r="E66">
+      <c r="E75">
         <f t="shared" si="11"/>
         <v>142</v>
       </c>
-      <c r="F66">
+      <c r="F75">
         <f t="shared" si="12"/>
         <v>39</v>
       </c>
-      <c r="G66">
+      <c r="G75">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D67">
+      <c r="D76">
         <f t="shared" si="10"/>
         <v>231</v>
       </c>
-      <c r="E67">
+      <c r="E76">
         <f t="shared" si="11"/>
         <v>146</v>
       </c>
-      <c r="F67">
+      <c r="F76">
         <f t="shared" si="12"/>
         <v>43</v>
       </c>
-      <c r="G67">
+      <c r="G76">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D68">
+      <c r="D77">
         <f t="shared" si="10"/>
         <v>233</v>
       </c>
-      <c r="E68">
+      <c r="E77">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="F68">
+      <c r="F77">
         <f t="shared" si="12"/>
         <v>47</v>
       </c>
-      <c r="G68">
+      <c r="G77">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A69" s="1" t="s">
+    <row r="78" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A78" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D69">
+      <c r="D78">
         <f t="shared" si="10"/>
         <v>235</v>
       </c>
-      <c r="E69">
+      <c r="E78">
         <f t="shared" si="11"/>
         <v>154</v>
       </c>
-      <c r="F69">
+      <c r="F78">
         <f t="shared" si="12"/>
         <v>51</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D70">
-        <f t="shared" si="10"/>
-        <v>237</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="11"/>
-        <v>158</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="12"/>
-        <v>55</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="10"/>
-        <v>239</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="11"/>
-        <v>162</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="12"/>
-        <v>59</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D72">
-        <f t="shared" si="10"/>
-        <v>241</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="11"/>
-        <v>166</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="12"/>
-        <v>63</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D73">
-        <f t="shared" si="10"/>
-        <v>243</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="11"/>
-        <v>170</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="12"/>
-        <v>67</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D74">
-        <f t="shared" si="10"/>
-        <v>245</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="11"/>
-        <v>174</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="12"/>
-        <v>71</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D75">
-        <f t="shared" si="10"/>
-        <v>247</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="11"/>
-        <v>178</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="12"/>
-        <v>75</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D76">
-        <f t="shared" si="10"/>
-        <v>249</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="11"/>
-        <v>182</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="12"/>
-        <v>79</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D77">
-        <f t="shared" si="10"/>
-        <v>251</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="11"/>
-        <v>186</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="12"/>
-        <v>83</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D78">
-        <f t="shared" si="10"/>
-        <v>253</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="11"/>
-        <v>190</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="12"/>
-        <v>87</v>
-      </c>
       <c r="G78">
         <f t="shared" si="13"/>
         <v>0</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D79">
         <f t="shared" si="10"/>
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="E79">
         <f t="shared" si="11"/>
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="F79">
         <f t="shared" si="12"/>
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="G79">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="10"/>
+        <v>239</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="11"/>
+        <v>162</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <f t="shared" si="10"/>
+        <v>241</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="11"/>
+        <v>166</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <f t="shared" si="10"/>
+        <v>243</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="11"/>
+        <v>170</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <f t="shared" si="10"/>
+        <v>245</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="11"/>
+        <v>174</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <f t="shared" si="10"/>
+        <v>247</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="11"/>
+        <v>178</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <f t="shared" si="10"/>
+        <v>249</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="11"/>
+        <v>182</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <f t="shared" si="10"/>
+        <v>251</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="11"/>
+        <v>186</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="12"/>
+        <v>83</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <f t="shared" si="10"/>
+        <v>253</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="11"/>
+        <v>190</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="12"/>
+        <v>87</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <f t="shared" si="10"/>
+        <v>255</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="11"/>
+        <v>194</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="12"/>
+        <v>91</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D83">
-        <v>255</v>
-      </c>
-      <c r="E83">
+      <c r="D92">
+        <v>255</v>
+      </c>
+      <c r="E92">
         <v>194</v>
       </c>
-      <c r="F83">
+      <c r="F92">
         <v>91</v>
       </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D84">
-        <f>D83+0</f>
-        <v>255</v>
-      </c>
-      <c r="E84">
-        <f>E83+2.5</f>
+      <c r="D93">
+        <f>D92+0</f>
+        <v>255</v>
+      </c>
+      <c r="E93">
+        <f>E92+2.5</f>
         <v>196.5</v>
       </c>
-      <c r="F84">
-        <f>F83+5</f>
+      <c r="F93">
+        <f>F92+5</f>
         <v>96</v>
       </c>
-      <c r="G84">
-        <f>G83+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="G93">
+        <f>G92+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D85">
-        <f t="shared" ref="D85:D96" si="14">D84+0</f>
-        <v>255</v>
-      </c>
-      <c r="E85">
-        <f t="shared" ref="E85:E94" si="15">E84+2.5</f>
+      <c r="D94">
+        <f t="shared" ref="D94:D105" si="14">D93+0</f>
+        <v>255</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ref="E94:E103" si="15">E93+2.5</f>
         <v>199</v>
       </c>
-      <c r="F85">
-        <f t="shared" ref="F85:F96" si="16">F84+5</f>
+      <c r="F94">
+        <f t="shared" ref="F94:F105" si="16">F93+5</f>
         <v>101</v>
       </c>
-      <c r="G85">
-        <f t="shared" ref="G85:G96" si="17">G84+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="G94">
+        <f t="shared" ref="G94:G105" si="17">G93+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D86">
+      <c r="D95">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
-      <c r="E86">
+      <c r="E95">
         <f t="shared" si="15"/>
         <v>201.5</v>
       </c>
-      <c r="F86">
+      <c r="F95">
         <f t="shared" si="16"/>
         <v>106</v>
       </c>
-      <c r="G86">
+      <c r="G95">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D87">
+      <c r="D96">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
-      <c r="E87">
+      <c r="E96">
         <f t="shared" si="15"/>
         <v>204</v>
       </c>
-      <c r="F87">
+      <c r="F96">
         <f t="shared" si="16"/>
         <v>111</v>
       </c>
-      <c r="G87">
+      <c r="G96">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D88">
+      <c r="D97">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
-      <c r="E88">
+      <c r="E97">
         <f t="shared" si="15"/>
         <v>206.5</v>
       </c>
-      <c r="F88">
+      <c r="F97">
         <f t="shared" si="16"/>
         <v>116</v>
       </c>
-      <c r="G88">
+      <c r="G97">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D89">
+      <c r="D98">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
-      <c r="E89">
+      <c r="E98">
         <f t="shared" si="15"/>
         <v>209</v>
       </c>
-      <c r="F89">
+      <c r="F98">
         <f t="shared" si="16"/>
         <v>121</v>
       </c>
-      <c r="G89">
+      <c r="G98">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A90" s="1" t="s">
+    <row r="99" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A99" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D90">
+      <c r="D99">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
-      <c r="E90">
+      <c r="E99">
         <f t="shared" si="15"/>
         <v>211.5</v>
       </c>
-      <c r="F90">
+      <c r="F99">
         <f t="shared" si="16"/>
         <v>126</v>
       </c>
-      <c r="G90">
+      <c r="G99">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H99" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D91">
+      <c r="D100">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
-      <c r="E91">
+      <c r="E100">
         <f t="shared" si="15"/>
         <v>214</v>
       </c>
-      <c r="F91">
+      <c r="F100">
         <f t="shared" si="16"/>
         <v>131</v>
       </c>
-      <c r="G91">
+      <c r="G100">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D92">
+      <c r="D101">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
-      <c r="E92">
+      <c r="E101">
         <f t="shared" si="15"/>
         <v>216.5</v>
       </c>
-      <c r="F92">
+      <c r="F101">
         <f t="shared" si="16"/>
         <v>136</v>
       </c>
-      <c r="G92">
+      <c r="G101">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>47</v>
       </c>
-      <c r="D93">
+      <c r="D102">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
-      <c r="E93">
+      <c r="E102">
         <f t="shared" si="15"/>
         <v>219</v>
       </c>
-      <c r="F93">
+      <c r="F102">
         <f t="shared" si="16"/>
         <v>141</v>
       </c>
-      <c r="G93">
+      <c r="G102">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D94">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D103">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
-      <c r="E94">
+      <c r="E103">
         <f t="shared" si="15"/>
         <v>221.5</v>
       </c>
-      <c r="F94">
+      <c r="F103">
         <f t="shared" si="16"/>
         <v>146</v>
       </c>
-      <c r="G94">
+      <c r="G103">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D95">
+      <c r="D104">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
-      <c r="E95">
-        <f>E94+2.5</f>
+      <c r="E104">
+        <f>E103+2.5</f>
         <v>224</v>
       </c>
-      <c r="F95">
+      <c r="F104">
         <f t="shared" si="16"/>
         <v>151</v>
       </c>
-      <c r="G95">
+      <c r="G104">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D96">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D105">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
-      <c r="E96">
-        <f>E95+2.5</f>
+      <c r="E105">
+        <f>E104+2.5</f>
         <v>226.5</v>
       </c>
-      <c r="F96">
+      <c r="F105">
         <f t="shared" si="16"/>
         <v>156</v>
       </c>
-      <c r="G96">
+      <c r="G105">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>59</v>
       </c>
-      <c r="D99">
-        <v>255</v>
-      </c>
-      <c r="E99">
+      <c r="D108">
+        <v>255</v>
+      </c>
+      <c r="E108">
         <v>226.5</v>
       </c>
-      <c r="F99">
+      <c r="F108">
         <v>156</v>
       </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D100">
-        <f>D99+0</f>
-        <v>255</v>
-      </c>
-      <c r="E100">
-        <f>E99+1</f>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <f>D108+0</f>
+        <v>255</v>
+      </c>
+      <c r="E109">
+        <f>E108+1</f>
         <v>227.5</v>
       </c>
-      <c r="F100">
-        <f>F99+2</f>
+      <c r="F109">
+        <f>F108+2</f>
         <v>158</v>
       </c>
-      <c r="G100">
-        <f xml:space="preserve"> G99+5</f>
+      <c r="G109">
+        <f xml:space="preserve"> G108+5</f>
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D101">
-        <f t="shared" ref="D101:D150" si="18">D100+0</f>
-        <v>255</v>
-      </c>
-      <c r="E101">
-        <f t="shared" ref="E101:E150" si="19">E100+1</f>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <f t="shared" ref="D110:D159" si="18">D109+0</f>
+        <v>255</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ref="E110:E159" si="19">E109+1</f>
         <v>228.5</v>
       </c>
-      <c r="F101">
-        <f t="shared" ref="F101:F150" si="20">F100+2</f>
+      <c r="F110">
+        <f t="shared" ref="F110:F159" si="20">F109+2</f>
         <v>160</v>
       </c>
-      <c r="G101">
-        <f t="shared" ref="G101:G148" si="21" xml:space="preserve"> G100+5</f>
+      <c r="G110">
+        <f t="shared" ref="G110:G157" si="21" xml:space="preserve"> G109+5</f>
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D102">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E102">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E111">
         <f t="shared" si="19"/>
         <v>229.5</v>
       </c>
-      <c r="F102">
+      <c r="F111">
         <f t="shared" si="20"/>
         <v>162</v>
       </c>
-      <c r="G102">
+      <c r="G111">
         <f t="shared" si="21"/>
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D103">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E103">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E112">
         <f t="shared" si="19"/>
         <v>230.5</v>
       </c>
-      <c r="F103">
+      <c r="F112">
         <f t="shared" si="20"/>
         <v>164</v>
       </c>
-      <c r="G103">
+      <c r="G112">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D104">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E104">
+    <row r="113" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E113">
         <f t="shared" si="19"/>
         <v>231.5</v>
       </c>
-      <c r="F104">
+      <c r="F113">
         <f t="shared" si="20"/>
         <v>166</v>
       </c>
-      <c r="G104">
+      <c r="G113">
         <f t="shared" si="21"/>
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D105">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E105">
+    <row r="114" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E114">
         <f t="shared" si="19"/>
         <v>232.5</v>
       </c>
-      <c r="F105">
+      <c r="F114">
         <f t="shared" si="20"/>
         <v>168</v>
       </c>
-      <c r="G105">
+      <c r="G114">
         <f t="shared" si="21"/>
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D106">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E106">
+    <row r="115" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E115">
         <f t="shared" si="19"/>
         <v>233.5</v>
       </c>
-      <c r="F106">
+      <c r="F115">
         <f t="shared" si="20"/>
         <v>170</v>
       </c>
-      <c r="G106">
+      <c r="G115">
         <f t="shared" si="21"/>
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D107">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E107">
+    <row r="116" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E116">
         <f t="shared" si="19"/>
         <v>234.5</v>
       </c>
-      <c r="F107">
+      <c r="F116">
         <f t="shared" si="20"/>
         <v>172</v>
       </c>
-      <c r="G107">
+      <c r="G116">
         <f t="shared" si="21"/>
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D108">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E108">
+    <row r="117" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E117">
         <f t="shared" si="19"/>
         <v>235.5</v>
       </c>
-      <c r="F108">
+      <c r="F117">
         <f t="shared" si="20"/>
         <v>174</v>
       </c>
-      <c r="G108">
+      <c r="G117">
         <f t="shared" si="21"/>
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D109">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E109">
+    <row r="118" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E118">
         <f t="shared" si="19"/>
         <v>236.5</v>
       </c>
-      <c r="F109">
+      <c r="F118">
         <f t="shared" si="20"/>
         <v>176</v>
       </c>
-      <c r="G109">
+      <c r="G118">
         <f t="shared" si="21"/>
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D110">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E110">
+    <row r="119" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E119">
         <f t="shared" si="19"/>
         <v>237.5</v>
       </c>
-      <c r="F110">
+      <c r="F119">
         <f t="shared" si="20"/>
         <v>178</v>
       </c>
-      <c r="G110">
+      <c r="G119">
         <f t="shared" si="21"/>
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D111">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E111">
+    <row r="120" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E120">
         <f t="shared" si="19"/>
         <v>238.5</v>
       </c>
-      <c r="F111">
+      <c r="F120">
         <f t="shared" si="20"/>
         <v>180</v>
       </c>
-      <c r="G111">
+      <c r="G120">
         <f t="shared" si="21"/>
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D112">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E112">
+    <row r="121" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E121">
         <f t="shared" si="19"/>
         <v>239.5</v>
       </c>
-      <c r="F112">
+      <c r="F121">
         <f t="shared" si="20"/>
         <v>182</v>
       </c>
-      <c r="G112">
+      <c r="G121">
         <f t="shared" si="21"/>
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D113">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E113">
+    <row r="122" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E122">
         <f t="shared" si="19"/>
         <v>240.5</v>
       </c>
-      <c r="F113">
+      <c r="F122">
         <f t="shared" si="20"/>
         <v>184</v>
       </c>
-      <c r="G113">
+      <c r="G122">
         <f t="shared" si="21"/>
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D114">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E114">
+    <row r="123" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E123">
         <f t="shared" si="19"/>
         <v>241.5</v>
       </c>
-      <c r="F114">
+      <c r="F123">
         <f t="shared" si="20"/>
         <v>186</v>
       </c>
-      <c r="G114">
+      <c r="G123">
         <f t="shared" si="21"/>
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D115">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E115">
+    <row r="124" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E124">
         <f t="shared" si="19"/>
         <v>242.5</v>
       </c>
-      <c r="F115">
+      <c r="F124">
         <f t="shared" si="20"/>
         <v>188</v>
       </c>
-      <c r="G115">
+      <c r="G124">
         <f t="shared" si="21"/>
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D116">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E116">
+    <row r="125" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E125">
         <f t="shared" si="19"/>
         <v>243.5</v>
       </c>
-      <c r="F116">
+      <c r="F125">
         <f t="shared" si="20"/>
         <v>190</v>
       </c>
-      <c r="G116">
+      <c r="G125">
         <f t="shared" si="21"/>
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D117">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E117">
+    <row r="126" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E126">
         <f t="shared" si="19"/>
         <v>244.5</v>
       </c>
-      <c r="F117">
+      <c r="F126">
         <f t="shared" si="20"/>
         <v>192</v>
       </c>
-      <c r="G117">
+      <c r="G126">
         <f t="shared" si="21"/>
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D118">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E118">
+    <row r="127" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E127">
         <f t="shared" si="19"/>
         <v>245.5</v>
       </c>
-      <c r="F118">
+      <c r="F127">
         <f t="shared" si="20"/>
         <v>194</v>
       </c>
-      <c r="G118">
+      <c r="G127">
         <f t="shared" si="21"/>
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D119">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E119">
+    <row r="128" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E128">
         <f t="shared" si="19"/>
         <v>246.5</v>
       </c>
-      <c r="F119">
+      <c r="F128">
         <f t="shared" si="20"/>
         <v>196</v>
       </c>
-      <c r="G119">
+      <c r="G128">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D120">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E120">
+    <row r="129" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E129">
         <f t="shared" si="19"/>
         <v>247.5</v>
       </c>
-      <c r="F120">
+      <c r="F129">
         <f t="shared" si="20"/>
         <v>198</v>
       </c>
-      <c r="G120">
+      <c r="G129">
         <f t="shared" si="21"/>
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D121">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E121">
+    <row r="130" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E130">
         <f t="shared" si="19"/>
         <v>248.5</v>
       </c>
-      <c r="F121">
+      <c r="F130">
         <f t="shared" si="20"/>
         <v>200</v>
       </c>
-      <c r="G121">
+      <c r="G130">
         <f t="shared" si="21"/>
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D122">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E122">
+    <row r="131" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E131">
         <f t="shared" si="19"/>
         <v>249.5</v>
       </c>
-      <c r="F122">
+      <c r="F131">
         <f t="shared" si="20"/>
         <v>202</v>
       </c>
-      <c r="G122">
+      <c r="G131">
         <f t="shared" si="21"/>
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D123">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E123">
+    <row r="132" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E132">
         <f t="shared" si="19"/>
         <v>250.5</v>
       </c>
-      <c r="F123">
+      <c r="F132">
         <f t="shared" si="20"/>
         <v>204</v>
       </c>
-      <c r="G123">
+      <c r="G132">
         <f t="shared" si="21"/>
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="4:8" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="D124">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E124">
+    <row r="133" spans="4:8" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D133">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E133">
         <f t="shared" si="19"/>
         <v>251.5</v>
       </c>
-      <c r="F124">
+      <c r="F133">
         <f t="shared" si="20"/>
         <v>206</v>
       </c>
-      <c r="G124">
+      <c r="G133">
         <f t="shared" si="21"/>
         <v>125</v>
       </c>
-      <c r="H124" s="4" t="s">
+      <c r="H133" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D125">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E125">
+    <row r="134" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E134">
         <f t="shared" si="19"/>
         <v>252.5</v>
       </c>
-      <c r="F125">
+      <c r="F134">
         <f t="shared" si="20"/>
         <v>208</v>
       </c>
-      <c r="G125">
-        <f xml:space="preserve"> G124+5</f>
+      <c r="G134">
+        <f xml:space="preserve"> G133+5</f>
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D126">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E126">
+    <row r="135" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E135">
         <f t="shared" si="19"/>
         <v>253.5</v>
       </c>
-      <c r="F126">
+      <c r="F135">
         <f t="shared" si="20"/>
         <v>210</v>
       </c>
-      <c r="G126">
+      <c r="G135">
         <f t="shared" si="21"/>
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D127">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E127">
+    <row r="136" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E136">
         <f t="shared" si="19"/>
         <v>254.5</v>
       </c>
-      <c r="F127">
+      <c r="F136">
         <f t="shared" si="20"/>
         <v>212</v>
       </c>
-      <c r="G127">
+      <c r="G136">
         <f t="shared" si="21"/>
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D128">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E128">
+    <row r="137" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E137">
         <f t="shared" si="19"/>
         <v>255.5</v>
       </c>
-      <c r="F128">
+      <c r="F137">
         <f t="shared" si="20"/>
         <v>214</v>
       </c>
-      <c r="G128">
+      <c r="G137">
         <f t="shared" si="21"/>
         <v>145</v>
       </c>
     </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D129">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E129">
+    <row r="138" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E138">
         <f t="shared" si="19"/>
         <v>256.5</v>
       </c>
-      <c r="F129">
+      <c r="F138">
         <f t="shared" si="20"/>
         <v>216</v>
       </c>
-      <c r="G129">
+      <c r="G138">
         <f t="shared" si="21"/>
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D130">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E130">
+    <row r="139" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E139">
         <f t="shared" si="19"/>
         <v>257.5</v>
       </c>
-      <c r="F130">
+      <c r="F139">
         <f t="shared" si="20"/>
         <v>218</v>
       </c>
-      <c r="G130">
+      <c r="G139">
         <f t="shared" si="21"/>
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D131">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E131">
+    <row r="140" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E140">
         <f t="shared" si="19"/>
         <v>258.5</v>
       </c>
-      <c r="F131">
+      <c r="F140">
         <f t="shared" si="20"/>
         <v>220</v>
       </c>
-      <c r="G131">
+      <c r="G140">
         <f t="shared" si="21"/>
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D132">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E132">
+    <row r="141" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E141">
         <f t="shared" si="19"/>
         <v>259.5</v>
       </c>
-      <c r="F132">
+      <c r="F141">
         <f t="shared" si="20"/>
         <v>222</v>
       </c>
-      <c r="G132">
+      <c r="G141">
         <f t="shared" si="21"/>
         <v>165</v>
       </c>
     </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D133">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E133">
+    <row r="142" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E142">
         <f t="shared" si="19"/>
         <v>260.5</v>
       </c>
-      <c r="F133">
+      <c r="F142">
         <f t="shared" si="20"/>
         <v>224</v>
       </c>
-      <c r="G133">
+      <c r="G142">
         <f t="shared" si="21"/>
         <v>170</v>
       </c>
     </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D134">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E134">
+    <row r="143" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E143">
         <f t="shared" si="19"/>
         <v>261.5</v>
       </c>
-      <c r="F134">
+      <c r="F143">
         <f t="shared" si="20"/>
         <v>226</v>
       </c>
-      <c r="G134">
+      <c r="G143">
         <f t="shared" si="21"/>
         <v>175</v>
       </c>
     </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D135">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E135">
+    <row r="144" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E144">
         <f t="shared" si="19"/>
         <v>262.5</v>
       </c>
-      <c r="F135">
+      <c r="F144">
         <f t="shared" si="20"/>
         <v>228</v>
       </c>
-      <c r="G135">
+      <c r="G144">
         <f t="shared" si="21"/>
         <v>180</v>
-      </c>
-    </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D136">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="19"/>
-        <v>263.5</v>
-      </c>
-      <c r="F136">
-        <f t="shared" si="20"/>
-        <v>230</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="21"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D137">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="19"/>
-        <v>264.5</v>
-      </c>
-      <c r="F137">
-        <f t="shared" si="20"/>
-        <v>232</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="21"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D138">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E138">
-        <f t="shared" si="19"/>
-        <v>265.5</v>
-      </c>
-      <c r="F138">
-        <f t="shared" si="20"/>
-        <v>234</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="21"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D139">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E139">
-        <f t="shared" si="19"/>
-        <v>266.5</v>
-      </c>
-      <c r="F139">
-        <f t="shared" si="20"/>
-        <v>236</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="21"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D140">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="19"/>
-        <v>267.5</v>
-      </c>
-      <c r="F140">
-        <f t="shared" si="20"/>
-        <v>238</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="21"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D141">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="19"/>
-        <v>268.5</v>
-      </c>
-      <c r="F141">
-        <f t="shared" si="20"/>
-        <v>240</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="21"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D142">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E142">
-        <f t="shared" si="19"/>
-        <v>269.5</v>
-      </c>
-      <c r="F142">
-        <f t="shared" si="20"/>
-        <v>242</v>
-      </c>
-      <c r="G142">
-        <f t="shared" si="21"/>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D143">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E143">
-        <f t="shared" si="19"/>
-        <v>270.5</v>
-      </c>
-      <c r="F143">
-        <f t="shared" si="20"/>
-        <v>244</v>
-      </c>
-      <c r="G143">
-        <f t="shared" si="21"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D144">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="E144">
-        <f t="shared" si="19"/>
-        <v>271.5</v>
-      </c>
-      <c r="F144">
-        <f t="shared" si="20"/>
-        <v>246</v>
-      </c>
-      <c r="G144">
-        <f t="shared" si="21"/>
-        <v>225</v>
       </c>
     </row>
     <row r="145" spans="4:7" x14ac:dyDescent="0.25">
@@ -3229,15 +3111,15 @@
       </c>
       <c r="E145">
         <f t="shared" si="19"/>
-        <v>272.5</v>
+        <v>263.5</v>
       </c>
       <c r="F145">
         <f t="shared" si="20"/>
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="G145">
         <f t="shared" si="21"/>
-        <v>230</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" spans="4:7" x14ac:dyDescent="0.25">
@@ -3247,15 +3129,15 @@
       </c>
       <c r="E146">
         <f t="shared" si="19"/>
-        <v>273.5</v>
+        <v>264.5</v>
       </c>
       <c r="F146">
         <f t="shared" si="20"/>
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="G146">
         <f t="shared" si="21"/>
-        <v>235</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147" spans="4:7" x14ac:dyDescent="0.25">
@@ -3265,15 +3147,15 @@
       </c>
       <c r="E147">
         <f t="shared" si="19"/>
-        <v>274.5</v>
+        <v>265.5</v>
       </c>
       <c r="F147">
         <f t="shared" si="20"/>
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="G147">
         <f t="shared" si="21"/>
-        <v>240</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="4:7" x14ac:dyDescent="0.25">
@@ -3283,15 +3165,15 @@
       </c>
       <c r="E148">
         <f t="shared" si="19"/>
-        <v>275.5</v>
+        <v>266.5</v>
       </c>
       <c r="F148">
         <f t="shared" si="20"/>
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="G148">
         <f t="shared" si="21"/>
-        <v>245</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="4:7" x14ac:dyDescent="0.25">
@@ -3301,15 +3183,15 @@
       </c>
       <c r="E149">
         <f t="shared" si="19"/>
-        <v>276.5</v>
+        <v>267.5</v>
       </c>
       <c r="F149">
         <f t="shared" si="20"/>
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="G149">
-        <f xml:space="preserve"> G148+5</f>
-        <v>250</v>
+        <f t="shared" si="21"/>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="4:7" x14ac:dyDescent="0.25">
@@ -3319,15 +3201,192 @@
       </c>
       <c r="E150">
         <f t="shared" si="19"/>
+        <v>268.5</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="20"/>
+        <v>240</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="21"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="19"/>
+        <v>269.5</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="20"/>
+        <v>242</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="21"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="152" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="19"/>
+        <v>270.5</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="20"/>
+        <v>244</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="21"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="153" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="19"/>
+        <v>271.5</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="20"/>
+        <v>246</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="21"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="19"/>
+        <v>272.5</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="20"/>
+        <v>248</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="21"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="19"/>
+        <v>273.5</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="20"/>
+        <v>250</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="21"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="156" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="19"/>
+        <v>274.5</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="20"/>
+        <v>252</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="21"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="157" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="19"/>
+        <v>275.5</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="20"/>
+        <v>254</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="21"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="158" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="19"/>
+        <v>276.5</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="20"/>
+        <v>256</v>
+      </c>
+      <c r="G158">
+        <f xml:space="preserve"> G157+5</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="159" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="19"/>
         <v>277.5</v>
       </c>
-      <c r="F150">
+      <c r="F159">
         <f t="shared" si="20"/>
         <v>258</v>
       </c>
-      <c r="G150">
-        <f xml:space="preserve"> G149+5</f>
-        <v>255</v>
+      <c r="G159">
+        <f xml:space="preserve"> G158+5</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B173" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.25">

--- a/doc/RGB_farbwerteSonnenaufgang.xlsx
+++ b/doc/RGB_farbwerteSonnenaufgang.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darvin Windlin\Documents\Projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C0CF81-45C9-4324-A5A7-AC1E82B337FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AF7ECE-33B2-4957-BDE4-CC8DF3AD2F6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{65B07C6F-0C0D-4F12-A361-1901765B9E28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{65B07C6F-0C0D-4F12-A361-1901765B9E28}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ablauf" sheetId="1" r:id="rId1"/>
+    <sheet name="Ablauf 2.0" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
   <si>
     <t>0, 0, 0</t>
   </si>
@@ -242,6 +243,48 @@
   </si>
   <si>
     <t>R = 155 G = 147 B = 256.5 W = 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R = 155 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G = 147 </t>
+  </si>
+  <si>
+    <t>B = 256.5</t>
+  </si>
+  <si>
+    <t>W = 250</t>
+  </si>
+  <si>
+    <t>R = 115</t>
+  </si>
+  <si>
+    <t>G = 34.5</t>
+  </si>
+  <si>
+    <t>B = 11.5</t>
+  </si>
+  <si>
+    <t>W = 0</t>
+  </si>
+  <si>
+    <t>B = 91.5</t>
+  </si>
+  <si>
+    <t>G = 114.5</t>
+  </si>
+  <si>
+    <t>R = 155</t>
+  </si>
+  <si>
+    <t>G = 147</t>
+  </si>
+  <si>
+    <t>B = 156.5</t>
+  </si>
+  <si>
+    <t>G = 147.0</t>
   </si>
 </sst>
 </file>
@@ -659,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBCCE95-6467-416E-A1AD-C6048230B3E9}">
   <dimension ref="A5:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+    <sheetView topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,4 +3442,2791 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2419A3E3-2D13-4F6E-A490-C343F3B666DD}">
+  <dimension ref="A3:Q152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2">
+        <f>M3+5</f>
+        <v>5</v>
+      </c>
+      <c r="N4" s="3">
+        <f>N3+1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="O4" s="3">
+        <f>O3+0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <f>P3+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M25" si="0">M4+5</f>
+        <v>10</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" ref="N5:N25" si="1">N4+1.5</f>
+        <v>3</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" ref="O5:O25" si="2">O4+0.5</f>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P25" si="3">P4+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="2">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="2">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="2">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="1">
+        <v>110</v>
+      </c>
+      <c r="N29">
+        <v>33</v>
+      </c>
+      <c r="O29">
+        <v>11</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="1">
+        <f>M29+4.5</f>
+        <v>114.5</v>
+      </c>
+      <c r="N30">
+        <f>N29+1.5</f>
+        <v>34.5</v>
+      </c>
+      <c r="O30">
+        <f>O29+0</f>
+        <v>11</v>
+      </c>
+      <c r="P30">
+        <f>P29+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" ref="M31:M43" si="4">M30+4.5</f>
+        <v>119</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N43" si="5">N30+1.5</f>
+        <v>36</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:P43" si="6">O30+0</f>
+        <v>11</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="4"/>
+        <v>123.5</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>37.5</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="4"/>
+        <v>132.5</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="5"/>
+        <v>40.5</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="J35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="4"/>
+        <v>141.5</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="5"/>
+        <v>43.5</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J37" s="1"/>
+      <c r="M37" s="1">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="4"/>
+        <v>150.5</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="5"/>
+        <v>46.5</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J39" s="1"/>
+      <c r="M39" s="1">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M40" s="1">
+        <f t="shared" si="4"/>
+        <v>159.5</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>49.5</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M41" s="1">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M42" s="1">
+        <f t="shared" si="4"/>
+        <v>168.5</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="5"/>
+        <v>52.5</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M43" s="1">
+        <f t="shared" si="4"/>
+        <v>173</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="1">
+        <v>173</v>
+      </c>
+      <c r="N46">
+        <v>54</v>
+      </c>
+      <c r="O46">
+        <v>11</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="1">
+        <f>M46+3.5</f>
+        <v>176.5</v>
+      </c>
+      <c r="N47">
+        <f>N46+5</f>
+        <v>59</v>
+      </c>
+      <c r="O47">
+        <f>O46+0</f>
+        <v>11</v>
+      </c>
+      <c r="P47">
+        <f>P46+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" ref="M48:M58" si="7">M47+3.5</f>
+        <v>180</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ref="N48:N58" si="8">N47+5</f>
+        <v>64</v>
+      </c>
+      <c r="O48">
+        <f t="shared" ref="O48:P58" si="9">O47+0</f>
+        <v>11</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="7"/>
+        <v>183.5</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="7"/>
+        <v>187</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="7"/>
+        <v>190.5</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="J52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="7"/>
+        <v>194</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J53" s="1"/>
+      <c r="M53" s="1">
+        <f t="shared" si="7"/>
+        <v>197.5</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="7"/>
+        <v>201</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J55" s="1"/>
+      <c r="M55" s="1">
+        <f t="shared" si="7"/>
+        <v>204.5</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M56" s="1">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M57" s="1">
+        <f t="shared" si="7"/>
+        <v>211.5</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M58" s="1">
+        <f t="shared" si="7"/>
+        <v>215</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61">
+        <v>215</v>
+      </c>
+      <c r="N61">
+        <v>114</v>
+      </c>
+      <c r="O61">
+        <v>11</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M62">
+        <f>M61+2</f>
+        <v>217</v>
+      </c>
+      <c r="N62">
+        <f>N61+4</f>
+        <v>118</v>
+      </c>
+      <c r="O62">
+        <f>O61+4</f>
+        <v>15</v>
+      </c>
+      <c r="P62">
+        <f>P61+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ref="M63:M81" si="10">M62+2</f>
+        <v>219</v>
+      </c>
+      <c r="N63">
+        <f t="shared" ref="N63:O78" si="11">N62+4</f>
+        <v>122</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="P63">
+        <f t="shared" ref="P63:P81" si="12">P62+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="10"/>
+        <v>221</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="11"/>
+        <v>126</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="10"/>
+        <v>223</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="10"/>
+        <v>225</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="11"/>
+        <v>134</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="10"/>
+        <v>227</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="11"/>
+        <v>138</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="10"/>
+        <v>229</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="11"/>
+        <v>142</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="10"/>
+        <v>231</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="11"/>
+        <v>146</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="11"/>
+        <v>43</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="10"/>
+        <v>233</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="11"/>
+        <v>47</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="J71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="10"/>
+        <v>235</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="11"/>
+        <v>154</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="11"/>
+        <v>51</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <f t="shared" si="10"/>
+        <v>237</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="11"/>
+        <v>158</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="10"/>
+        <v>239</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="11"/>
+        <v>162</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="11"/>
+        <v>59</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <f t="shared" si="10"/>
+        <v>241</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="11"/>
+        <v>166</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <f t="shared" si="10"/>
+        <v>243</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="11"/>
+        <v>170</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <f t="shared" si="10"/>
+        <v>245</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="11"/>
+        <v>174</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <f t="shared" si="10"/>
+        <v>247</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="11"/>
+        <v>178</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <f t="shared" si="10"/>
+        <v>249</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="11"/>
+        <v>182</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <f t="shared" si="10"/>
+        <v>251</v>
+      </c>
+      <c r="N79">
+        <f t="shared" ref="N79:O81" si="13">N78+4</f>
+        <v>186</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="13"/>
+        <v>83</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <f t="shared" si="10"/>
+        <v>253</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="13"/>
+        <v>190</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <f t="shared" si="10"/>
+        <v>255</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="13"/>
+        <v>194</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="13"/>
+        <v>91</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M85">
+        <v>255</v>
+      </c>
+      <c r="N85">
+        <v>194</v>
+      </c>
+      <c r="O85">
+        <v>91</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M86">
+        <f>M85+0</f>
+        <v>255</v>
+      </c>
+      <c r="N86">
+        <f>N85+2.5</f>
+        <v>196.5</v>
+      </c>
+      <c r="O86">
+        <f>O85+5</f>
+        <v>96</v>
+      </c>
+      <c r="P86">
+        <f>P85+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J87" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M87">
+        <f t="shared" ref="M87:M98" si="14">M86+0</f>
+        <v>255</v>
+      </c>
+      <c r="N87">
+        <f t="shared" ref="N87:N96" si="15">N86+2.5</f>
+        <v>199</v>
+      </c>
+      <c r="O87">
+        <f t="shared" ref="O87:O98" si="16">O86+5</f>
+        <v>101</v>
+      </c>
+      <c r="P87">
+        <f t="shared" ref="P87:P98" si="17">P86+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="15"/>
+        <v>201.5</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="16"/>
+        <v>106</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J89" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="15"/>
+        <v>204</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="16"/>
+        <v>111</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J90" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="15"/>
+        <v>206.5</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="16"/>
+        <v>116</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J91" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="15"/>
+        <v>209</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="16"/>
+        <v>121</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="J92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="15"/>
+        <v>211.5</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="16"/>
+        <v>126</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="15"/>
+        <v>214</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="16"/>
+        <v>131</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J94" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="15"/>
+        <v>216.5</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="16"/>
+        <v>136</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>47</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="15"/>
+        <v>219</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="16"/>
+        <v>141</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="15"/>
+        <v>221.5</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="16"/>
+        <v>146</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="N97">
+        <f>N96+2.5</f>
+        <v>224</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="16"/>
+        <v>151</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="N98">
+        <f>N97+2.5</f>
+        <v>226.5</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="16"/>
+        <v>156</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>59</v>
+      </c>
+      <c r="M101">
+        <v>255</v>
+      </c>
+      <c r="N101">
+        <v>226.5</v>
+      </c>
+      <c r="O101">
+        <v>156</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <f>M101+0</f>
+        <v>255</v>
+      </c>
+      <c r="N102">
+        <f>N101+1</f>
+        <v>227.5</v>
+      </c>
+      <c r="O102">
+        <f>O101+2</f>
+        <v>158</v>
+      </c>
+      <c r="P102">
+        <f xml:space="preserve"> P101+5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <f t="shared" ref="M103:M152" si="18">M102+0</f>
+        <v>255</v>
+      </c>
+      <c r="N103">
+        <f t="shared" ref="N103:N152" si="19">N102+1</f>
+        <v>228.5</v>
+      </c>
+      <c r="O103">
+        <f t="shared" ref="O103:O152" si="20">O102+2</f>
+        <v>160</v>
+      </c>
+      <c r="P103">
+        <f t="shared" ref="P103:P150" si="21" xml:space="preserve"> P102+5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="19"/>
+        <v>229.5</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="20"/>
+        <v>162</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="19"/>
+        <v>230.5</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="20"/>
+        <v>164</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="19"/>
+        <v>231.5</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="20"/>
+        <v>166</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="19"/>
+        <v>232.5</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="20"/>
+        <v>168</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="19"/>
+        <v>233.5</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="20"/>
+        <v>170</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="21"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="19"/>
+        <v>234.5</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="20"/>
+        <v>172</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="19"/>
+        <v>235.5</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="20"/>
+        <v>174</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="21"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="19"/>
+        <v>236.5</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="20"/>
+        <v>176</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="19"/>
+        <v>237.5</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="20"/>
+        <v>178</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="21"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="19"/>
+        <v>238.5</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="20"/>
+        <v>180</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="21"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="19"/>
+        <v>239.5</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="20"/>
+        <v>182</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="21"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="19"/>
+        <v>240.5</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="20"/>
+        <v>184</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="21"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M116">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="19"/>
+        <v>241.5</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="20"/>
+        <v>186</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="21"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M117">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="19"/>
+        <v>242.5</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="20"/>
+        <v>188</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="21"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="19"/>
+        <v>243.5</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="20"/>
+        <v>190</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="21"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M119">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="19"/>
+        <v>244.5</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="20"/>
+        <v>192</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="21"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M120">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="19"/>
+        <v>245.5</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="20"/>
+        <v>194</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="21"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M121">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="19"/>
+        <v>246.5</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="20"/>
+        <v>196</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M122">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="19"/>
+        <v>247.5</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="20"/>
+        <v>198</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="21"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M123">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="19"/>
+        <v>248.5</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="20"/>
+        <v>200</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="21"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M124">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="19"/>
+        <v>249.5</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="20"/>
+        <v>202</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="21"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="125" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M125">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="19"/>
+        <v>250.5</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="20"/>
+        <v>204</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="21"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="13:17" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="M126">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="19"/>
+        <v>251.5</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="20"/>
+        <v>206</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="21"/>
+        <v>125</v>
+      </c>
+      <c r="Q126" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M127">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="19"/>
+        <v>252.5</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="20"/>
+        <v>208</v>
+      </c>
+      <c r="P127">
+        <f xml:space="preserve"> P126+5</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M128">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="19"/>
+        <v>253.5</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="20"/>
+        <v>210</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="21"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="129" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M129">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="19"/>
+        <v>254.5</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="20"/>
+        <v>212</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="21"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M130">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="19"/>
+        <v>255.5</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="20"/>
+        <v>214</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="21"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M131">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="19"/>
+        <v>256.5</v>
+      </c>
+      <c r="O131">
+        <f t="shared" si="20"/>
+        <v>216</v>
+      </c>
+      <c r="P131">
+        <f t="shared" si="21"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M132">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="19"/>
+        <v>257.5</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="20"/>
+        <v>218</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="21"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M133">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="19"/>
+        <v>258.5</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="20"/>
+        <v>220</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="21"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M134">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="19"/>
+        <v>259.5</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="20"/>
+        <v>222</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="21"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M135">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="19"/>
+        <v>260.5</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="20"/>
+        <v>224</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="21"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M136">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="19"/>
+        <v>261.5</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="20"/>
+        <v>226</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="21"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M137">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="19"/>
+        <v>262.5</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="20"/>
+        <v>228</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="21"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M138">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="19"/>
+        <v>263.5</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="20"/>
+        <v>230</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="21"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M139">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="19"/>
+        <v>264.5</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="20"/>
+        <v>232</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="21"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M140">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="19"/>
+        <v>265.5</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="20"/>
+        <v>234</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="21"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M141">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="19"/>
+        <v>266.5</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="20"/>
+        <v>236</v>
+      </c>
+      <c r="P141">
+        <f t="shared" si="21"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M142">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="19"/>
+        <v>267.5</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="20"/>
+        <v>238</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="21"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M143">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="19"/>
+        <v>268.5</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="20"/>
+        <v>240</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="21"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M144">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="19"/>
+        <v>269.5</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="20"/>
+        <v>242</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="21"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="145" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M145">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="19"/>
+        <v>270.5</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="20"/>
+        <v>244</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="21"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="146" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M146">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="19"/>
+        <v>271.5</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="20"/>
+        <v>246</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="21"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="147" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M147">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="19"/>
+        <v>272.5</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="20"/>
+        <v>248</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="21"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M148">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="19"/>
+        <v>273.5</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="20"/>
+        <v>250</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="21"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="149" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M149">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="19"/>
+        <v>274.5</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="20"/>
+        <v>252</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="21"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="150" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M150">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="19"/>
+        <v>275.5</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="20"/>
+        <v>254</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="21"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="151" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M151">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="19"/>
+        <v>276.5</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="20"/>
+        <v>256</v>
+      </c>
+      <c r="P151">
+        <f xml:space="preserve"> P150+5</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="152" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M152">
+        <f t="shared" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="19"/>
+        <v>277.5</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="20"/>
+        <v>258</v>
+      </c>
+      <c r="P152">
+        <f xml:space="preserve"> P151+5</f>
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/RGB_farbwerteSonnenaufgang.xlsx
+++ b/doc/RGB_farbwerteSonnenaufgang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darvin Windlin\Documents\Projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AF7ECE-33B2-4957-BDE4-CC8DF3AD2F6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F17DBC-B75D-47CB-959A-64DEDB8CD928}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{65B07C6F-0C0D-4F12-A361-1901765B9E28}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>0, 0, 0</t>
   </si>
@@ -245,12 +245,6 @@
     <t>R = 155 G = 147 B = 256.5 W = 250</t>
   </si>
   <si>
-    <t xml:space="preserve">R = 155 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G = 147 </t>
-  </si>
-  <si>
     <t>B = 256.5</t>
   </si>
   <si>
@@ -285,6 +279,12 @@
   </si>
   <si>
     <t>G = 147.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zweite Schleife </t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBCCE95-6467-416E-A1AD-C6048230B3E9}">
   <dimension ref="A5:XFD1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:J163"/>
     </sheetView>
   </sheetViews>
@@ -3446,10 +3446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2419A3E3-2D13-4F6E-A490-C343F3B666DD}">
-  <dimension ref="A3:Q152"/>
+  <dimension ref="A1:AA227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,2772 +3457,4371 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1">
+        <v>112.5</v>
+      </c>
+      <c r="K1">
+        <v>36</v>
+      </c>
+      <c r="L1">
+        <v>11.25</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1">
+        <v>153.5</v>
+      </c>
+      <c r="R1">
+        <v>90.12</v>
+      </c>
+      <c r="S1">
+        <v>93.25</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1">
+        <v>155.4</v>
+      </c>
+      <c r="Y1">
+        <v>147.12</v>
+      </c>
+      <c r="Z1">
+        <v>154.05000000000001</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <f>C1+2.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="D2">
+        <f>D1 + 0.8</f>
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <f xml:space="preserve"> E1 + 0.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="F2">
+        <f>F1 +0</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2">
+        <f xml:space="preserve"> J1 + 1</f>
+        <v>113.5</v>
+      </c>
+      <c r="K2">
+        <f>K1 +1.32</f>
+        <v>37.32</v>
+      </c>
+      <c r="L2">
+        <f>L1 + 2</f>
+        <v>13.25</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2">
+        <f>Q1 + 0.05</f>
+        <v>153.55000000000001</v>
+      </c>
+      <c r="R2">
+        <f xml:space="preserve"> R1 + 1.5</f>
+        <v>91.62</v>
+      </c>
+      <c r="S2">
+        <f xml:space="preserve"> S1 + 1.6</f>
+        <v>94.85</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2">
+        <v>155.4</v>
+      </c>
+      <c r="Y2">
+        <v>147.12</v>
+      </c>
+      <c r="Z2">
+        <f xml:space="preserve"> Z1 + 1</f>
+        <v>155.05000000000001</v>
+      </c>
+      <c r="AA2">
+        <f xml:space="preserve"> AA1 + 2.5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C45" si="0">C2+2.5</f>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D46" si="1">D2 + 0.8</f>
+        <v>1.6</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E46" si="2" xml:space="preserve"> E2 + 0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F46" si="3">F2 +0</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J42" si="4" xml:space="preserve"> J2 + 1</f>
+        <v>114.5</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K42" si="5">K2 +1.32</f>
+        <v>38.64</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L42" si="6">L2 + 2</f>
+        <v>15.25</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q39" si="7">Q2 + 0.05</f>
+        <v>153.60000000000002</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R39" si="8" xml:space="preserve"> R2 + 1.5</f>
+        <v>93.12</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S39" si="9" xml:space="preserve"> S2 + 1.6</f>
+        <v>96.449999999999989</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" t="s">
+      <c r="X3">
+        <v>155.4</v>
+      </c>
+      <c r="Y3">
+        <v>147.12</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z66" si="10" xml:space="preserve"> Z2 + 1</f>
+        <v>156.05000000000001</v>
+      </c>
+      <c r="AA3">
+        <f xml:space="preserve"> AA2 + 2.5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>115.5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>39.96</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="6"/>
+        <v>17.25</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="7"/>
+        <v>153.65000000000003</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="8"/>
+        <v>94.62</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="9"/>
+        <v>98.049999999999983</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
         <v>65</v>
       </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J4" s="2" t="s">
+      <c r="X4">
+        <v>155.4</v>
+      </c>
+      <c r="Y4">
+        <v>147.12</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="10"/>
+        <v>157.05000000000001</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA3:AA66" si="11" xml:space="preserve"> AA3 + 2.5</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="2">
-        <f>M3+5</f>
-        <v>5</v>
-      </c>
-      <c r="N4" s="3">
-        <f>N3+1.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="O4" s="3">
-        <f>O3+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="P4">
-        <f>P3+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="2">
-        <f t="shared" ref="M5:M25" si="0">M4+5</f>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>116.5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>41.28</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>19.25</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="7"/>
+        <v>153.70000000000005</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="8"/>
+        <v>96.12</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="9"/>
+        <v>99.649999999999977</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>155.4</v>
+      </c>
+      <c r="Y5">
+        <v>147.12</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="10"/>
+        <v>158.05000000000001</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="N5" s="3">
-        <f t="shared" ref="N5:N25" si="1">N4+1.5</f>
-        <v>3</v>
-      </c>
-      <c r="O5" s="3">
-        <f t="shared" ref="O5:O25" si="2">O4+0.5</f>
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ref="P5:P25" si="3">P4+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="2">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>117.5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>42.6</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>21.25</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>153.75000000000006</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="8"/>
+        <v>97.62</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="9"/>
+        <v>101.24999999999997</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>155.4</v>
+      </c>
+      <c r="Y6">
+        <v>147.12</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="10"/>
+        <v>159.05000000000001</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="11"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="N6" s="3">
+      <c r="D7">
         <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="O6" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="P6">
+      <c r="F7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="2">
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>118.5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>43.92</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>23.25</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>153.80000000000007</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="8"/>
+        <v>99.12</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="9"/>
+        <v>102.84999999999997</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>155.4</v>
+      </c>
+      <c r="Y7">
+        <v>147.12</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="10"/>
+        <v>160.05000000000001</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>119.5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>45.24</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>25.25</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>153.85000000000008</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="8"/>
+        <v>100.62</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="9"/>
+        <v>104.44999999999996</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>155.4</v>
+      </c>
+      <c r="Y8">
+        <v>147.12</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="10"/>
+        <v>161.05000000000001</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="11"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="N7" s="3">
+      <c r="D9">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="O7" s="3">
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="P7">
+      <c r="F9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="2">
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>120.5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>46.56</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>27.25</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="7"/>
+        <v>153.90000000000009</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="8"/>
+        <v>102.12</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="9"/>
+        <v>106.04999999999995</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>155.4</v>
+      </c>
+      <c r="Y9">
+        <v>147.12</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="10"/>
+        <v>162.05000000000001</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>121.5</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>47.88</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>29.25</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="7"/>
+        <v>153.9500000000001</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="8"/>
+        <v>103.62</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="9"/>
+        <v>107.64999999999995</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>155.4</v>
+      </c>
+      <c r="Y10">
+        <v>147.12</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="10"/>
+        <v>163.05000000000001</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="11"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="N8" s="3">
+      <c r="D11">
         <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="O8" s="3">
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="P8">
+      <c r="F11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="2">
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>122.5</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>49.2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>31.25</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="7"/>
+        <v>154.00000000000011</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="8"/>
+        <v>105.12</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="9"/>
+        <v>109.24999999999994</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>155.4</v>
+      </c>
+      <c r="Y11">
+        <v>147.12</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="10"/>
+        <v>164.05</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999989</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>123.5</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>50.52</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>33.25</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="7"/>
+        <v>154.05000000000013</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="8"/>
+        <v>106.62</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="9"/>
+        <v>110.84999999999994</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>155.4</v>
+      </c>
+      <c r="Y12">
+        <v>147.12</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="10"/>
+        <v>165.05</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="11"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="N9" s="3">
+      <c r="D13">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="O9" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="P9">
+      <c r="F13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="2">
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>124.5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>51.84</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>35.25</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="7"/>
+        <v>154.10000000000014</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="8"/>
+        <v>108.12</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="9"/>
+        <v>112.44999999999993</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>155.4</v>
+      </c>
+      <c r="Y13">
+        <v>147.12</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="10"/>
+        <v>166.05</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>125.5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>53.160000000000004</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>37.25</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="7"/>
+        <v>154.15000000000015</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="8"/>
+        <v>109.62</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="9"/>
+        <v>114.04999999999993</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>155.4</v>
+      </c>
+      <c r="Y14">
+        <v>147.12</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="10"/>
+        <v>167.05</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="11"/>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="N10" s="3">
+      <c r="D15">
         <f t="shared" si="1"/>
-        <v>10.5</v>
-      </c>
-      <c r="O10" s="3">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="P10">
+      <c r="F15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="2">
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>126.5</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>54.480000000000004</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>39.25</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="7"/>
+        <v>154.20000000000016</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="8"/>
+        <v>111.12</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="9"/>
+        <v>115.64999999999992</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>155.4</v>
+      </c>
+      <c r="Y15">
+        <v>147.12</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="10"/>
+        <v>168.05</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>12.000000000000002</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>127.5</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>55.800000000000004</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>41.25</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="7"/>
+        <v>154.25000000000017</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="8"/>
+        <v>112.62</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="9"/>
+        <v>117.24999999999991</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>155.4</v>
+      </c>
+      <c r="Y16">
+        <v>147.12</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="10"/>
+        <v>169.05</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="11"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="N11" s="3">
+      <c r="D17">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="O11" s="3">
+        <v>12.800000000000002</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="P11">
+      <c r="F17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="J12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="2">
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>128.5</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>57.120000000000005</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>43.25</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="7"/>
+        <v>154.30000000000018</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="8"/>
+        <v>114.12</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="9"/>
+        <v>118.84999999999991</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>155.4</v>
+      </c>
+      <c r="Y17">
+        <v>147.12</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="10"/>
+        <v>170.05</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>13.600000000000003</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>129.5</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>58.440000000000005</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>45.25</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="7"/>
+        <v>154.35000000000019</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="8"/>
+        <v>115.62</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="9"/>
+        <v>120.4499999999999</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>155.4</v>
+      </c>
+      <c r="Y18">
+        <v>147.12</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="10"/>
+        <v>171.05</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="11"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C19">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="N12" s="3">
+      <c r="D19">
         <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-      <c r="O12" s="3">
+        <v>14.400000000000004</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="P12">
+      <c r="F19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="2">
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>130.5</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>59.760000000000005</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>47.25</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="7"/>
+        <v>154.4000000000002</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="8"/>
+        <v>117.12</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="9"/>
+        <v>122.0499999999999</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>155.4</v>
+      </c>
+      <c r="Y19">
+        <v>147.12</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="10"/>
+        <v>172.05</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>15.200000000000005</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>131.5</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>61.080000000000005</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>49.25</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="7"/>
+        <v>154.45000000000022</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="8"/>
+        <v>118.62</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="9"/>
+        <v>123.64999999999989</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>155.4</v>
+      </c>
+      <c r="Y20">
+        <v>147.12</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="10"/>
+        <v>173.05</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="11"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C21">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="N13" s="3">
+      <c r="D21">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="O13" s="3">
+        <v>16.000000000000004</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="P13">
+      <c r="F21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="2">
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>132.5</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>51.25</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="7"/>
+        <v>154.50000000000023</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="8"/>
+        <v>120.12</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="9"/>
+        <v>125.24999999999989</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>155.4</v>
+      </c>
+      <c r="Y21">
+        <v>147.12</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="10"/>
+        <v>174.05</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>16.800000000000004</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>5.25</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>133.5</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>63.720000000000006</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>53.25</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="7"/>
+        <v>154.55000000000024</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="8"/>
+        <v>121.62</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="9"/>
+        <v>126.84999999999988</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>155.4</v>
+      </c>
+      <c r="Y22">
+        <v>147.12</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="10"/>
+        <v>175.05</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="11"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C23">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="N14" s="3">
+      <c r="D23">
         <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-      <c r="O14" s="3">
+        <v>17.600000000000005</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="P14">
+      <c r="F23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="2">
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>134.5</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>65.040000000000006</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>55.25</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="7"/>
+        <v>154.60000000000025</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="8"/>
+        <v>123.12</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="9"/>
+        <v>128.44999999999987</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>155.4</v>
+      </c>
+      <c r="Y23">
+        <v>147.12</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="10"/>
+        <v>176.05</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>18.400000000000006</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>5.75</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>135.5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>66.36</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>57.25</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="7"/>
+        <v>154.65000000000026</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="8"/>
+        <v>124.62</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="9"/>
+        <v>130.04999999999987</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>155.4</v>
+      </c>
+      <c r="Y24">
+        <v>147.12</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="10"/>
+        <v>177.05</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="11"/>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C25">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="N15" s="3">
+      <c r="D25">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="O15" s="3">
+        <v>19.200000000000006</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="P15">
+      <c r="F25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="2">
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>136.5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>67.679999999999993</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>59.25</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="7"/>
+        <v>154.70000000000027</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="8"/>
+        <v>126.12</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="9"/>
+        <v>131.64999999999986</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>155.4</v>
+      </c>
+      <c r="Y25">
+        <v>147.12</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="10"/>
+        <v>178.05</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>20.000000000000007</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>6.25</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>137.5</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>68.999999999999986</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>61.25</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="7"/>
+        <v>154.75000000000028</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="8"/>
+        <v>127.62</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="9"/>
+        <v>133.24999999999986</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>155.4</v>
+      </c>
+      <c r="Y26">
+        <v>147.12</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="10"/>
+        <v>179.05</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="11"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C27">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="N16" s="3">
+      <c r="D27">
         <f t="shared" si="1"/>
-        <v>19.5</v>
-      </c>
-      <c r="O16" s="3">
+        <v>20.800000000000008</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="P16">
+      <c r="F27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="2">
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>138.5</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>70.319999999999979</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>63.25</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="7"/>
+        <v>154.8000000000003</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="8"/>
+        <v>129.12</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="9"/>
+        <v>134.84999999999985</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>155.4</v>
+      </c>
+      <c r="Y27">
+        <v>147.12</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="10"/>
+        <v>180.05</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>21.600000000000009</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>6.75</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>139.5</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>71.639999999999972</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>65.25</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="7"/>
+        <v>154.85000000000031</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="8"/>
+        <v>130.62</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="9"/>
+        <v>136.44999999999985</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>155.4</v>
+      </c>
+      <c r="Y28">
+        <v>147.12</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="10"/>
+        <v>181.05</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="11"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C29">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="N17" s="3">
+      <c r="D29">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="O17" s="3">
+        <v>22.400000000000009</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="P17">
+      <c r="F29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="2">
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>140.5</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>72.959999999999965</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>67.25</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="7"/>
+        <v>154.90000000000032</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="8"/>
+        <v>132.12</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="9"/>
+        <v>138.04999999999984</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>155.4</v>
+      </c>
+      <c r="Y29">
+        <v>147.12</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="10"/>
+        <v>182.05</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>23.20000000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>7.25</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>141.5</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>74.279999999999959</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="6"/>
+        <v>69.25</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="7"/>
+        <v>154.95000000000033</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="8"/>
+        <v>133.62</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="9"/>
+        <v>139.64999999999984</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>155.4</v>
+      </c>
+      <c r="Y30">
+        <v>147.12</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="10"/>
+        <v>183.05</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="11"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C31">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="N18" s="3">
+      <c r="D31">
         <f t="shared" si="1"/>
-        <v>22.5</v>
-      </c>
-      <c r="O18" s="3">
+        <v>24.000000000000011</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="P18">
+      <c r="F31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="2">
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>142.5</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>75.599999999999952</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>71.25</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="7"/>
+        <v>155.00000000000034</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="8"/>
+        <v>135.12</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="9"/>
+        <v>141.24999999999983</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>155.4</v>
+      </c>
+      <c r="Y31">
+        <v>147.12</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="10"/>
+        <v>184.05</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>77.5</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>24.800000000000011</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>7.75</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>143.5</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>76.919999999999945</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>73.25</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="7"/>
+        <v>155.05000000000035</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="8"/>
+        <v>136.62</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="9"/>
+        <v>142.84999999999982</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>155.4</v>
+      </c>
+      <c r="Y32">
+        <v>147.12</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="10"/>
+        <v>185.05</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="11"/>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C33">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="N19" s="3">
+      <c r="D33">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="O19" s="3">
+        <v>25.600000000000012</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="P19">
+      <c r="F33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="2">
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>144.5</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>78.239999999999938</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>75.25</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>155.10000000000036</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="8"/>
+        <v>138.12</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="9"/>
+        <v>144.44999999999982</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>155.4</v>
+      </c>
+      <c r="Y33">
+        <v>147.12</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="10"/>
+        <v>186.05</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>26.400000000000013</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>8.25</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>145.5</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>79.559999999999931</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>77.25</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>155.15000000000038</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="8"/>
+        <v>139.62</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="9"/>
+        <v>146.04999999999981</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>155.4</v>
+      </c>
+      <c r="Y34">
+        <v>147.12</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="10"/>
+        <v>187.05</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="11"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C35">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="N20" s="3">
+      <c r="D35">
         <f t="shared" si="1"/>
-        <v>25.5</v>
-      </c>
-      <c r="O20" s="3">
+        <v>27.200000000000014</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="P20">
+      <c r="F35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="2">
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>146.5</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>80.879999999999924</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>79.25</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="7"/>
+        <v>155.20000000000039</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="8"/>
+        <v>141.12</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="9"/>
+        <v>147.64999999999981</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>155.4</v>
+      </c>
+      <c r="Y35">
+        <v>147.12</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="10"/>
+        <v>188.05</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="11"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>28.000000000000014</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>8.75</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>147.5</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>82.199999999999918</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>81.25</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>155.2500000000004</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="8"/>
+        <v>142.62</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="9"/>
+        <v>149.2499999999998</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>155.4</v>
+      </c>
+      <c r="Y36">
+        <v>147.12</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="10"/>
+        <v>189.05</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="11"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C37">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="N21" s="3">
+      <c r="D37">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="O21" s="3">
+        <v>28.800000000000015</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="P21">
+      <c r="F37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="2">
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>148.5</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>83.519999999999911</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>83.25</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="7"/>
+        <v>155.30000000000041</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="8"/>
+        <v>144.12</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="9"/>
+        <v>150.8499999999998</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>155.4</v>
+      </c>
+      <c r="Y37">
+        <v>147.12</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="10"/>
+        <v>190.05</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>29.600000000000016</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>9.25</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>149.5</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>84.839999999999904</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>85.25</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="7"/>
+        <v>155.35000000000042</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="8"/>
+        <v>145.62</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="9"/>
+        <v>152.44999999999979</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>155.4</v>
+      </c>
+      <c r="Y38">
+        <v>147.12</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="10"/>
+        <v>191.05</v>
+      </c>
+      <c r="AA38">
+        <f xml:space="preserve"> AA37 + 2.5</f>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C39">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="N22" s="3">
+      <c r="D39">
         <f t="shared" si="1"/>
-        <v>28.5</v>
-      </c>
-      <c r="O22" s="3">
+        <v>30.400000000000016</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
-      <c r="P22">
+      <c r="F39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="2">
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>150.5</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>86.159999999999897</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>87.25</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="7"/>
+        <v>155.40000000000043</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="8"/>
+        <v>147.12</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="9"/>
+        <v>154.04999999999978</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>155.4</v>
+      </c>
+      <c r="Y39">
+        <v>147.12</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="10"/>
+        <v>192.05</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="11"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>31.200000000000017</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>9.75</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>151.5</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>87.47999999999989</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>89.25</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>155.4</v>
+      </c>
+      <c r="Y40">
+        <v>147.12</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="10"/>
+        <v>193.05</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="11"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C41">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="D41">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="O23" s="3">
+        <v>32.000000000000014</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="P23">
+      <c r="F41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="2">
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>152.5</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>88.799999999999883</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>91.25</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>155.4</v>
+      </c>
+      <c r="Y41">
+        <v>147.12</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="10"/>
+        <v>194.05</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>102.5</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>32.800000000000011</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>10.25</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>153.5</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>90.119999999999877</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>93.25</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>155.4</v>
+      </c>
+      <c r="Y42">
+        <v>147.12</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="10"/>
+        <v>195.05</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="11"/>
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C43">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="N24" s="3">
+      <c r="D43">
         <f t="shared" si="1"/>
-        <v>31.5</v>
-      </c>
-      <c r="O24" s="3">
+        <v>33.600000000000009</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
-      <c r="P24">
+      <c r="F43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="2">
+      <c r="M43" s="1"/>
+      <c r="X43">
+        <v>155.4</v>
+      </c>
+      <c r="Y43">
+        <v>147.12</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="10"/>
+        <v>196.05</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="11"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>107.5</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>34.400000000000006</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>10.75</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>155.4</v>
+      </c>
+      <c r="Y44">
+        <v>147.12</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="10"/>
+        <v>197.05</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="11"/>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C45">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="N25" s="3">
+      <c r="D45">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="O25" s="3">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="P25">
+      <c r="F45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="X45">
+        <v>155.4</v>
+      </c>
+      <c r="Y45">
+        <v>147.12</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="10"/>
+        <v>198.05</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="11"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f>C45+2.5</f>
+        <v>112.5</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>11.25</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="X46">
+        <v>155.4</v>
+      </c>
+      <c r="Y46">
+        <v>147.12</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="10"/>
+        <v>199.05</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="11"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="J47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="X47">
+        <v>155.4</v>
+      </c>
+      <c r="Y47">
+        <v>147.12</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="10"/>
+        <v>200.05</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="J48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="X48">
+        <v>155.4</v>
+      </c>
+      <c r="Y48">
+        <v>147.12</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="10"/>
+        <v>201.05</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="11"/>
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="J49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="X49">
+        <v>155.4</v>
+      </c>
+      <c r="Y49">
+        <v>147.12</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="10"/>
+        <v>202.05</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="1">
-        <v>110</v>
-      </c>
-      <c r="N29">
-        <v>33</v>
-      </c>
-      <c r="O29">
-        <v>11</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="1">
-        <f>M29+4.5</f>
-        <v>114.5</v>
-      </c>
-      <c r="N30">
-        <f>N29+1.5</f>
-        <v>34.5</v>
-      </c>
-      <c r="O30">
-        <f>O29+0</f>
-        <v>11</v>
-      </c>
-      <c r="P30">
-        <f>P29+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="1">
-        <f t="shared" ref="M31:M43" si="4">M30+4.5</f>
-        <v>119</v>
-      </c>
-      <c r="N31">
-        <f t="shared" ref="N31:N43" si="5">N30+1.5</f>
+      <c r="M50" s="1"/>
+      <c r="Q50" t="s">
+        <v>50</v>
+      </c>
+      <c r="X50">
+        <v>155.4</v>
+      </c>
+      <c r="Y50">
+        <v>147.12</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="10"/>
+        <v>203.05</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="11"/>
+        <v>122.5</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="J51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="X51">
+        <v>155.4</v>
+      </c>
+      <c r="Y51">
+        <v>147.12</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="10"/>
+        <v>204.05</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="11"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="J52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="Q52" s="4"/>
+      <c r="X52">
+        <v>155.4</v>
+      </c>
+      <c r="Y52">
+        <v>147.12</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="10"/>
+        <v>205.05</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="11"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>112.5</v>
+      </c>
+      <c r="D53">
         <v>36</v>
       </c>
-      <c r="O31">
-        <f t="shared" ref="O31:P43" si="6">O30+0</f>
-        <v>11</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="1">
-        <f t="shared" si="4"/>
-        <v>123.5</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="5"/>
-        <v>37.5</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="1">
-        <f t="shared" si="4"/>
-        <v>128</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M34" s="1">
-        <f t="shared" si="4"/>
-        <v>132.5</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="5"/>
-        <v>40.5</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="J35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="1">
-        <f t="shared" si="4"/>
-        <v>137</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" s="1">
-        <f t="shared" si="4"/>
-        <v>141.5</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="5"/>
-        <v>43.5</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="1"/>
-      <c r="M37" s="1">
-        <f t="shared" si="4"/>
-        <v>146</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" s="1">
-        <f t="shared" si="4"/>
-        <v>150.5</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="5"/>
-        <v>46.5</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J39" s="1"/>
-      <c r="M39" s="1">
-        <f t="shared" si="4"/>
-        <v>155</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M40" s="1">
-        <f t="shared" si="4"/>
-        <v>159.5</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="5"/>
-        <v>49.5</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M41" s="1">
-        <f t="shared" si="4"/>
-        <v>164</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M42" s="1">
-        <f t="shared" si="4"/>
-        <v>168.5</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="5"/>
-        <v>52.5</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M43" s="1">
-        <f t="shared" si="4"/>
-        <v>173</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M46" s="1">
-        <v>173</v>
-      </c>
-      <c r="N46">
-        <v>54</v>
-      </c>
-      <c r="O46">
-        <v>11</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" s="1">
-        <f>M46+3.5</f>
-        <v>176.5</v>
-      </c>
-      <c r="N47">
-        <f>N46+5</f>
-        <v>59</v>
-      </c>
-      <c r="O47">
-        <f>O46+0</f>
-        <v>11</v>
-      </c>
-      <c r="P47">
-        <f>P46+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" s="1">
-        <f t="shared" ref="M48:M58" si="7">M47+3.5</f>
-        <v>180</v>
-      </c>
-      <c r="N48">
-        <f t="shared" ref="N48:N58" si="8">N47+5</f>
-        <v>64</v>
-      </c>
-      <c r="O48">
-        <f t="shared" ref="O48:P58" si="9">O47+0</f>
-        <v>11</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M49" s="1">
-        <f t="shared" si="7"/>
-        <v>183.5</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="8"/>
-        <v>69</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" s="1">
-        <f t="shared" si="7"/>
-        <v>187</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="8"/>
-        <v>74</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M51" s="1">
-        <f t="shared" si="7"/>
-        <v>190.5</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="8"/>
-        <v>79</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="J52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M52" s="1">
-        <f t="shared" si="7"/>
-        <v>194</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J53" s="1"/>
-      <c r="M53" s="1">
-        <f t="shared" si="7"/>
-        <v>197.5</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M54" s="1">
-        <f t="shared" si="7"/>
-        <v>201</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="8"/>
-        <v>94</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J55" s="1"/>
-      <c r="M55" s="1">
-        <f t="shared" si="7"/>
-        <v>204.5</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M56" s="1">
-        <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="8"/>
-        <v>104</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M57" s="1">
-        <f t="shared" si="7"/>
-        <v>211.5</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="8"/>
-        <v>109</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M58" s="1">
-        <f t="shared" si="7"/>
-        <v>215</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="8"/>
-        <v>114</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M61">
-        <v>215</v>
-      </c>
-      <c r="N61">
-        <v>114</v>
-      </c>
-      <c r="O61">
-        <v>11</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M62">
-        <f>M61+2</f>
-        <v>217</v>
-      </c>
-      <c r="N62">
-        <f>N61+4</f>
-        <v>118</v>
-      </c>
-      <c r="O62">
-        <f>O61+4</f>
-        <v>15</v>
-      </c>
-      <c r="P62">
-        <f>P61+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M63">
-        <f t="shared" ref="M63:M81" si="10">M62+2</f>
-        <v>219</v>
-      </c>
-      <c r="N63">
-        <f t="shared" ref="N63:O78" si="11">N62+4</f>
-        <v>122</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-      <c r="P63">
-        <f t="shared" ref="P63:P81" si="12">P62+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M64">
-        <f t="shared" si="10"/>
-        <v>221</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="11"/>
-        <v>126</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="11"/>
-        <v>23</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J65" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="10"/>
-        <v>223</v>
-      </c>
-      <c r="N65">
+      <c r="E53" s="1">
+        <v>11.25</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="X53">
+        <v>155.4</v>
+      </c>
+      <c r="Y53">
+        <v>147.12</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="10"/>
+        <v>206.05</v>
+      </c>
+      <c r="AA53">
         <f t="shared" si="11"/>
         <v>130</v>
       </c>
-      <c r="O65">
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f xml:space="preserve"> C53 - 2.5</f>
+        <v>110</v>
+      </c>
+      <c r="D54">
+        <f xml:space="preserve"> D53 - 0.76</f>
+        <v>35.24</v>
+      </c>
+      <c r="E54" s="1">
+        <f xml:space="preserve"> E53 - 0.2</f>
+        <v>11.05</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="X54">
+        <v>155.4</v>
+      </c>
+      <c r="Y54">
+        <v>147.12</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="10"/>
+        <v>207.05</v>
+      </c>
+      <c r="AA54">
         <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
-      <c r="P65">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" ref="C55:C98" si="12" xml:space="preserve"> C54 - 2.5</f>
+        <v>107.5</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:D98" si="13" xml:space="preserve"> D54 - 0.76</f>
+        <v>34.480000000000004</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" ref="E55:E98" si="14" xml:space="preserve"> E54 - 0.2</f>
+        <v>10.850000000000001</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1"/>
+      <c r="X55">
+        <v>155.4</v>
+      </c>
+      <c r="Y55">
+        <v>147.12</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="10"/>
+        <v>208.05</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="11"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C56">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M66">
-        <f t="shared" si="10"/>
-        <v>225</v>
-      </c>
-      <c r="N66">
+        <v>105</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="13"/>
+        <v>33.720000000000006</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="14"/>
+        <v>10.650000000000002</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1"/>
+      <c r="X56">
+        <v>155.4</v>
+      </c>
+      <c r="Y56">
+        <v>147.12</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="10"/>
+        <v>209.05</v>
+      </c>
+      <c r="AA56">
+        <f xml:space="preserve"> AA55 + 2.5</f>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f t="shared" si="12"/>
+        <v>102.5</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="13"/>
+        <v>32.960000000000008</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="14"/>
+        <v>10.450000000000003</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="X57">
+        <v>155.4</v>
+      </c>
+      <c r="Y57">
+        <v>147.12</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="10"/>
+        <v>210.05</v>
+      </c>
+      <c r="AA57">
         <f t="shared" si="11"/>
-        <v>134</v>
-      </c>
-      <c r="O66">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="13"/>
+        <v>32.20000000000001</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="14"/>
+        <v>10.250000000000004</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1"/>
+      <c r="X58">
+        <v>155.4</v>
+      </c>
+      <c r="Y58">
+        <v>147.12</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="10"/>
+        <v>211.05</v>
+      </c>
+      <c r="AA58">
         <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
-      <c r="P66">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C59">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J67" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="10"/>
-        <v>227</v>
-      </c>
-      <c r="N67">
+        <v>97.5</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="13"/>
+        <v>31.440000000000008</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="14"/>
+        <v>10.050000000000004</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>155.4</v>
+      </c>
+      <c r="Y59">
+        <v>147.12</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="10"/>
+        <v>212.05</v>
+      </c>
+      <c r="AA59">
         <f t="shared" si="11"/>
-        <v>138</v>
-      </c>
-      <c r="O67">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" si="12"/>
+        <v>95</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="13"/>
+        <v>30.680000000000007</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="14"/>
+        <v>9.850000000000005</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>155.4</v>
+      </c>
+      <c r="Y60">
+        <v>147.12</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="10"/>
+        <v>213.05</v>
+      </c>
+      <c r="AA60">
         <f t="shared" si="11"/>
-        <v>35</v>
-      </c>
-      <c r="P67">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C61">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="10"/>
-        <v>229</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="11"/>
-        <v>142</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="11"/>
-        <v>39</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="10"/>
-        <v>231</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="11"/>
-        <v>146</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="11"/>
-        <v>43</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J70" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="10"/>
-        <v>233</v>
-      </c>
-      <c r="N70">
+        <v>92.5</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="13"/>
+        <v>29.920000000000005</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="14"/>
+        <v>9.6500000000000057</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>155.4</v>
+      </c>
+      <c r="Y61">
+        <v>147.12</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="10"/>
+        <v>214.05</v>
+      </c>
+      <c r="AA61">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="O70">
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="13"/>
+        <v>29.160000000000004</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="14"/>
+        <v>9.4500000000000064</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>155.4</v>
+      </c>
+      <c r="Y62">
+        <v>147.12</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="10"/>
+        <v>215.05</v>
+      </c>
+      <c r="AA62">
         <f t="shared" si="11"/>
-        <v>47</v>
-      </c>
-      <c r="P70">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C63">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="J71" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="10"/>
+        <v>87.5</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="13"/>
+        <v>28.400000000000002</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="14"/>
+        <v>9.2500000000000071</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>155.4</v>
+      </c>
+      <c r="Y63">
+        <v>147.12</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="10"/>
+        <v>216.05</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="11"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="13"/>
+        <v>27.64</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="14"/>
+        <v>9.0500000000000078</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>155.4</v>
+      </c>
+      <c r="Y64">
+        <v>147.12</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="10"/>
+        <v>217.05</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="11"/>
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="65" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f t="shared" si="12"/>
+        <v>82.5</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="13"/>
+        <v>26.88</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="14"/>
+        <v>8.8500000000000085</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>155.4</v>
+      </c>
+      <c r="Y65">
+        <v>147.12</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="10"/>
+        <v>218.05</v>
+      </c>
+      <c r="AA65">
+        <f xml:space="preserve"> AA64 + 2.5</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="13"/>
+        <v>26.119999999999997</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="14"/>
+        <v>8.6500000000000092</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>155.4</v>
+      </c>
+      <c r="Y66">
+        <v>147.12</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="10"/>
+        <v>219.05</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="11"/>
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="67" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <f t="shared" si="12"/>
+        <v>77.5</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="13"/>
+        <v>25.359999999999996</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="14"/>
+        <v>8.4500000000000099</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>155.4</v>
+      </c>
+      <c r="Y67">
+        <v>147.12</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" ref="Z67:Z103" si="15" xml:space="preserve"> Z66 + 1</f>
+        <v>220.05</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" ref="AA67:AA103" si="16" xml:space="preserve"> AA66 + 2.5</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="13"/>
+        <v>24.599999999999994</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="14"/>
+        <v>8.2500000000000107</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>155.4</v>
+      </c>
+      <c r="Y68">
+        <v>147.12</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="15"/>
+        <v>221.05</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="16"/>
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="69" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <f t="shared" si="12"/>
+        <v>72.5</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="13"/>
+        <v>23.839999999999993</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="14"/>
+        <v>8.0500000000000114</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>155.4</v>
+      </c>
+      <c r="Y69">
+        <v>147.12</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="15"/>
+        <v>222.05</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="16"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="13"/>
+        <v>23.079999999999991</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="14"/>
+        <v>7.8500000000000112</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>155.4</v>
+      </c>
+      <c r="Y70">
+        <v>147.12</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="15"/>
+        <v>223.05</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="16"/>
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="71" spans="3:27" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C71">
+        <f t="shared" si="12"/>
+        <v>67.5</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="13"/>
+        <v>22.31999999999999</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="14"/>
+        <v>7.650000000000011</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="4"/>
+      <c r="X71">
+        <v>155.4</v>
+      </c>
+      <c r="Y71">
+        <v>147.12</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="15"/>
+        <v>224.05</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="16"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="13"/>
+        <v>21.559999999999988</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="14"/>
+        <v>7.4500000000000108</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>155.4</v>
+      </c>
+      <c r="Y72">
+        <v>147.12</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="15"/>
+        <v>225.05</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="16"/>
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="73" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f t="shared" si="12"/>
+        <v>62.5</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="13"/>
+        <v>20.799999999999986</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" si="14"/>
+        <v>7.2500000000000107</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>155.4</v>
+      </c>
+      <c r="Y73">
+        <v>147.12</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="15"/>
+        <v>226.05</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="16"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="13"/>
+        <v>20.039999999999985</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="14"/>
+        <v>7.0500000000000105</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>155.4</v>
+      </c>
+      <c r="Y74">
+        <v>147.12</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="15"/>
+        <v>227.05</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="16"/>
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="75" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f t="shared" si="12"/>
+        <v>57.5</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="13"/>
+        <v>19.279999999999983</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="14"/>
+        <v>6.8500000000000103</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>155.4</v>
+      </c>
+      <c r="Y75">
+        <v>147.12</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="15"/>
+        <v>228.05</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="16"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="13"/>
+        <v>18.519999999999982</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="14"/>
+        <v>6.6500000000000101</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>155.4</v>
+      </c>
+      <c r="Y76">
+        <v>147.12</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="15"/>
+        <v>229.05</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="16"/>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="77" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <f t="shared" si="12"/>
+        <v>52.5</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="13"/>
+        <v>17.75999999999998</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="14"/>
+        <v>6.4500000000000099</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>155.4</v>
+      </c>
+      <c r="Y77">
+        <v>147.12</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="15"/>
+        <v>230.05</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="16"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="13"/>
+        <v>16.999999999999979</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="14"/>
+        <v>6.2500000000000098</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>155.4</v>
+      </c>
+      <c r="Y78">
+        <v>147.12</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="15"/>
+        <v>231.05</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="16"/>
+        <v>192.5</v>
+      </c>
+    </row>
+    <row r="79" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <f t="shared" si="12"/>
+        <v>47.5</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="13"/>
+        <v>16.239999999999977</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="14"/>
+        <v>6.0500000000000096</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>155.4</v>
+      </c>
+      <c r="Y79">
+        <v>147.12</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="15"/>
+        <v>232.05</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="16"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="13"/>
+        <v>15.479999999999977</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="14"/>
+        <v>5.8500000000000094</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>155.4</v>
+      </c>
+      <c r="Y80">
+        <v>147.12</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="15"/>
+        <v>233.05</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="16"/>
+        <v>197.5</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <f t="shared" si="12"/>
+        <v>42.5</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="13"/>
+        <v>14.719999999999978</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="14"/>
+        <v>5.6500000000000092</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>155.4</v>
+      </c>
+      <c r="Y81">
+        <v>147.12</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="15"/>
+        <v>234.05</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="16"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="13"/>
+        <v>13.959999999999978</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="14"/>
+        <v>5.4500000000000091</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>155.4</v>
+      </c>
+      <c r="Y82">
+        <v>147.12</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="15"/>
+        <v>235.05</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="16"/>
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <f t="shared" si="12"/>
+        <v>37.5</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="13"/>
+        <v>13.199999999999978</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="14"/>
+        <v>5.2500000000000089</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>155.4</v>
+      </c>
+      <c r="Y83">
+        <v>147.12</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="15"/>
+        <v>236.05</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="16"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="13"/>
+        <v>12.439999999999978</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="14"/>
+        <v>5.0500000000000087</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>155.4</v>
+      </c>
+      <c r="Y84">
+        <v>147.12</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="15"/>
+        <v>237.05</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="16"/>
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <f t="shared" si="12"/>
+        <v>32.5</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="13"/>
+        <v>11.679999999999978</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="14"/>
+        <v>4.8500000000000085</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>155.4</v>
+      </c>
+      <c r="Y85">
+        <v>147.12</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="15"/>
+        <v>238.05</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="16"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="13"/>
+        <v>10.919999999999979</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="14"/>
+        <v>4.6500000000000083</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>155.4</v>
+      </c>
+      <c r="Y86">
+        <v>147.12</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="15"/>
+        <v>239.05</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="16"/>
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <f t="shared" si="12"/>
+        <v>27.5</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="13"/>
+        <v>10.159999999999979</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="14"/>
+        <v>4.4500000000000082</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>155.4</v>
+      </c>
+      <c r="Y87">
+        <v>147.12</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="15"/>
+        <v>240.05</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="16"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="13"/>
+        <v>9.399999999999979</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="14"/>
+        <v>4.250000000000008</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>155.4</v>
+      </c>
+      <c r="Y88">
+        <v>147.12</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="15"/>
+        <v>241.05</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="16"/>
+        <v>217.5</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <f t="shared" si="12"/>
+        <v>22.5</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="13"/>
+        <v>8.6399999999999793</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="14"/>
+        <v>4.0500000000000078</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>155.4</v>
+      </c>
+      <c r="Y89">
+        <v>147.12</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="15"/>
+        <v>242.05</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="16"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="13"/>
+        <v>7.8799999999999795</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" si="14"/>
+        <v>3.8500000000000076</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>155.4</v>
+      </c>
+      <c r="Y90">
+        <v>147.12</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="15"/>
+        <v>243.05</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" si="16"/>
+        <v>222.5</v>
+      </c>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <f t="shared" si="12"/>
+        <v>17.5</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="13"/>
+        <v>7.1199999999999797</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="14"/>
+        <v>3.6500000000000075</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>155.4</v>
+      </c>
+      <c r="Y91">
+        <v>147.12</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="15"/>
+        <v>244.05</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" si="16"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C92">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="13"/>
+        <v>6.3599999999999799</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="14"/>
+        <v>3.4500000000000073</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="4"/>
+      <c r="X92">
+        <v>155.4</v>
+      </c>
+      <c r="Y92">
+        <v>147.12</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="15"/>
+        <v>245.05</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="16"/>
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <f t="shared" si="12"/>
+        <v>12.5</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="13"/>
+        <v>5.5999999999999801</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="14"/>
+        <v>3.2500000000000071</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>155.4</v>
+      </c>
+      <c r="Y93">
+        <v>147.12</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="15"/>
+        <v>246.05</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="16"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="13"/>
+        <v>4.8399999999999803</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="14"/>
+        <v>3.0500000000000069</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>155.4</v>
+      </c>
+      <c r="Y94">
+        <v>147.12</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" si="15"/>
+        <v>247.05</v>
+      </c>
+      <c r="AA94">
+        <f t="shared" si="16"/>
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <f t="shared" si="12"/>
+        <v>7.5</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="13"/>
+        <v>4.0799999999999805</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="14"/>
+        <v>2.8500000000000068</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>155.4</v>
+      </c>
+      <c r="Y95">
+        <v>147.12</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="15"/>
+        <v>248.05</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="16"/>
         <v>235</v>
       </c>
-      <c r="N71">
-        <f t="shared" si="11"/>
-        <v>154</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="11"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="13"/>
+        <v>3.3199999999999807</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" si="14"/>
+        <v>2.6500000000000066</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>155.4</v>
+      </c>
+      <c r="Y96">
+        <v>147.12</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="15"/>
+        <v>249.05</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" si="16"/>
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="13"/>
+        <v>2.559999999999981</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" si="14"/>
+        <v>2.4500000000000064</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>155.4</v>
+      </c>
+      <c r="Y97">
+        <v>147.12</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="15"/>
+        <v>250.05</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="16"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="13"/>
+        <v>1.7999999999999809</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" si="14"/>
+        <v>2.2500000000000062</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>155.4</v>
+      </c>
+      <c r="Y98">
+        <v>147.12</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="15"/>
+        <v>251.05</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="16"/>
+        <v>242.5</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="X99">
+        <v>155.4</v>
+      </c>
+      <c r="Y99">
+        <v>147.12</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" si="15"/>
+        <v>252.05</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="16"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="X100">
+        <v>155.4</v>
+      </c>
+      <c r="Y100">
+        <v>147.12</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" si="15"/>
+        <v>253.05</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="16"/>
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="X101">
+        <v>155.4</v>
+      </c>
+      <c r="Y101">
+        <v>147.12</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="15"/>
+        <v>254.05</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="16"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="X102">
+        <v>155.4</v>
+      </c>
+      <c r="Y102">
+        <v>147.12</v>
+      </c>
+      <c r="Z102">
+        <f t="shared" si="15"/>
+        <v>255.05</v>
+      </c>
+      <c r="AA102">
+        <f t="shared" si="16"/>
+        <v>252.5</v>
+      </c>
+    </row>
+    <row r="103" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="X103">
+        <v>155.4</v>
+      </c>
+      <c r="Y103">
+        <v>147.12</v>
+      </c>
+      <c r="Z103">
+        <f t="shared" si="15"/>
+        <v>256.05</v>
+      </c>
+      <c r="AA103">
+        <f t="shared" si="16"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="X104" t="s">
         <v>51</v>
       </c>
-      <c r="P71">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q71" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M72">
-        <f t="shared" si="10"/>
-        <v>237</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="11"/>
-        <v>158</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="11"/>
-        <v>55</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J73" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="10"/>
-        <v>239</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="11"/>
-        <v>162</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="11"/>
-        <v>59</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M74">
-        <f t="shared" si="10"/>
-        <v>241</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="11"/>
-        <v>166</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="11"/>
-        <v>63</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M75">
-        <f t="shared" si="10"/>
-        <v>243</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="11"/>
-        <v>170</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="11"/>
-        <v>67</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M76">
-        <f t="shared" si="10"/>
-        <v>245</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="11"/>
-        <v>174</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="11"/>
-        <v>71</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M77">
-        <f t="shared" si="10"/>
-        <v>247</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="11"/>
-        <v>178</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="11"/>
-        <v>75</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M78">
-        <f t="shared" si="10"/>
-        <v>249</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="11"/>
-        <v>182</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="11"/>
-        <v>79</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M79">
-        <f t="shared" si="10"/>
-        <v>251</v>
-      </c>
-      <c r="N79">
-        <f t="shared" ref="N79:O81" si="13">N78+4</f>
-        <v>186</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="13"/>
-        <v>83</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M80">
-        <f t="shared" si="10"/>
-        <v>253</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="13"/>
-        <v>190</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="13"/>
-        <v>87</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M81">
-        <f t="shared" si="10"/>
-        <v>255</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="13"/>
-        <v>194</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="13"/>
-        <v>91</v>
-      </c>
-      <c r="P81">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J85" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M85">
-        <v>255</v>
-      </c>
-      <c r="N85">
-        <v>194</v>
-      </c>
-      <c r="O85">
-        <v>91</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J86" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M86">
-        <f>M85+0</f>
-        <v>255</v>
-      </c>
-      <c r="N86">
-        <f>N85+2.5</f>
-        <v>196.5</v>
-      </c>
-      <c r="O86">
-        <f>O85+5</f>
-        <v>96</v>
-      </c>
-      <c r="P86">
-        <f>P85+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J87" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M87">
-        <f t="shared" ref="M87:M98" si="14">M86+0</f>
-        <v>255</v>
-      </c>
-      <c r="N87">
-        <f t="shared" ref="N87:N96" si="15">N86+2.5</f>
-        <v>199</v>
-      </c>
-      <c r="O87">
-        <f t="shared" ref="O87:O98" si="16">O86+5</f>
-        <v>101</v>
-      </c>
-      <c r="P87">
-        <f t="shared" ref="P87:P98" si="17">P86+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J88" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="14"/>
-        <v>255</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="15"/>
-        <v>201.5</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="16"/>
-        <v>106</v>
-      </c>
-      <c r="P88">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J89" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="14"/>
-        <v>255</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="15"/>
-        <v>204</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="16"/>
-        <v>111</v>
-      </c>
-      <c r="P89">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J90" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M90">
-        <f t="shared" si="14"/>
-        <v>255</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="15"/>
-        <v>206.5</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="16"/>
-        <v>116</v>
-      </c>
-      <c r="P90">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J91" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M91">
-        <f t="shared" si="14"/>
-        <v>255</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="15"/>
-        <v>209</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="16"/>
-        <v>121</v>
-      </c>
-      <c r="P91">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="J92" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M92">
-        <f t="shared" si="14"/>
-        <v>255</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="15"/>
-        <v>211.5</v>
-      </c>
-      <c r="O92">
-        <f t="shared" si="16"/>
-        <v>126</v>
-      </c>
-      <c r="P92">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q92" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J93" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M93">
-        <f t="shared" si="14"/>
-        <v>255</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="15"/>
-        <v>214</v>
-      </c>
-      <c r="O93">
-        <f t="shared" si="16"/>
-        <v>131</v>
-      </c>
-      <c r="P93">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J94" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M94">
-        <f t="shared" si="14"/>
-        <v>255</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="15"/>
-        <v>216.5</v>
-      </c>
-      <c r="O94">
-        <f t="shared" si="16"/>
-        <v>136</v>
-      </c>
-      <c r="P94">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J95" t="s">
-        <v>47</v>
-      </c>
-      <c r="M95">
-        <f t="shared" si="14"/>
-        <v>255</v>
-      </c>
-      <c r="N95">
-        <f t="shared" si="15"/>
-        <v>219</v>
-      </c>
-      <c r="O95">
-        <f t="shared" si="16"/>
-        <v>141</v>
-      </c>
-      <c r="P95">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M96">
-        <f t="shared" si="14"/>
-        <v>255</v>
-      </c>
-      <c r="N96">
-        <f t="shared" si="15"/>
-        <v>221.5</v>
-      </c>
-      <c r="O96">
-        <f t="shared" si="16"/>
-        <v>146</v>
-      </c>
-      <c r="P96">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J97" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M97">
-        <f t="shared" si="14"/>
-        <v>255</v>
-      </c>
-      <c r="N97">
-        <f>N96+2.5</f>
-        <v>224</v>
-      </c>
-      <c r="O97">
-        <f t="shared" si="16"/>
-        <v>151</v>
-      </c>
-      <c r="P97">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="M98">
-        <f t="shared" si="14"/>
-        <v>255</v>
-      </c>
-      <c r="N98">
-        <f>N97+2.5</f>
-        <v>226.5</v>
-      </c>
-      <c r="O98">
-        <f t="shared" si="16"/>
-        <v>156</v>
-      </c>
-      <c r="P98">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J101" t="s">
-        <v>59</v>
-      </c>
-      <c r="M101">
-        <v>255</v>
-      </c>
-      <c r="N101">
-        <v>226.5</v>
-      </c>
-      <c r="O101">
-        <v>156</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="M102">
-        <f>M101+0</f>
-        <v>255</v>
-      </c>
-      <c r="N102">
-        <f>N101+1</f>
-        <v>227.5</v>
-      </c>
-      <c r="O102">
-        <f>O101+2</f>
-        <v>158</v>
-      </c>
-      <c r="P102">
-        <f xml:space="preserve"> P101+5</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="M103">
-        <f t="shared" ref="M103:M152" si="18">M102+0</f>
-        <v>255</v>
-      </c>
-      <c r="N103">
-        <f t="shared" ref="N103:N152" si="19">N102+1</f>
-        <v>228.5</v>
-      </c>
-      <c r="O103">
-        <f t="shared" ref="O103:O152" si="20">O102+2</f>
-        <v>160</v>
-      </c>
-      <c r="P103">
-        <f t="shared" ref="P103:P150" si="21" xml:space="preserve"> P102+5</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="M104">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N104">
-        <f t="shared" si="19"/>
-        <v>229.5</v>
-      </c>
-      <c r="O104">
-        <f t="shared" si="20"/>
-        <v>162</v>
-      </c>
-      <c r="P104">
-        <f t="shared" si="21"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="M105">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N105">
-        <f t="shared" si="19"/>
-        <v>230.5</v>
-      </c>
-      <c r="O105">
-        <f t="shared" si="20"/>
-        <v>164</v>
-      </c>
-      <c r="P105">
-        <f t="shared" si="21"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="M106">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N106">
-        <f t="shared" si="19"/>
-        <v>231.5</v>
-      </c>
-      <c r="O106">
-        <f t="shared" si="20"/>
-        <v>166</v>
-      </c>
-      <c r="P106">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="M107">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N107">
-        <f t="shared" si="19"/>
-        <v>232.5</v>
-      </c>
-      <c r="O107">
-        <f t="shared" si="20"/>
-        <v>168</v>
-      </c>
-      <c r="P107">
-        <f t="shared" si="21"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="M108">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N108">
-        <f t="shared" si="19"/>
-        <v>233.5</v>
-      </c>
-      <c r="O108">
-        <f t="shared" si="20"/>
-        <v>170</v>
-      </c>
-      <c r="P108">
-        <f t="shared" si="21"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="M109">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N109">
-        <f t="shared" si="19"/>
-        <v>234.5</v>
-      </c>
-      <c r="O109">
-        <f t="shared" si="20"/>
-        <v>172</v>
-      </c>
-      <c r="P109">
-        <f t="shared" si="21"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="M110">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N110">
-        <f t="shared" si="19"/>
-        <v>235.5</v>
-      </c>
-      <c r="O110">
-        <f t="shared" si="20"/>
-        <v>174</v>
-      </c>
-      <c r="P110">
-        <f t="shared" si="21"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="111" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="M111">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N111">
-        <f t="shared" si="19"/>
-        <v>236.5</v>
-      </c>
-      <c r="O111">
-        <f t="shared" si="20"/>
-        <v>176</v>
-      </c>
-      <c r="P111">
-        <f t="shared" si="21"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="M112">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N112">
-        <f t="shared" si="19"/>
-        <v>237.5</v>
-      </c>
-      <c r="O112">
-        <f t="shared" si="20"/>
-        <v>178</v>
-      </c>
-      <c r="P112">
-        <f t="shared" si="21"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M113">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N113">
-        <f t="shared" si="19"/>
-        <v>238.5</v>
-      </c>
-      <c r="O113">
-        <f t="shared" si="20"/>
-        <v>180</v>
-      </c>
-      <c r="P113">
-        <f t="shared" si="21"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M114">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N114">
-        <f t="shared" si="19"/>
-        <v>239.5</v>
-      </c>
-      <c r="O114">
-        <f t="shared" si="20"/>
-        <v>182</v>
-      </c>
-      <c r="P114">
-        <f t="shared" si="21"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="115" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M115">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="19"/>
-        <v>240.5</v>
-      </c>
-      <c r="O115">
-        <f t="shared" si="20"/>
-        <v>184</v>
-      </c>
-      <c r="P115">
-        <f t="shared" si="21"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="116" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M116">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N116">
-        <f t="shared" si="19"/>
-        <v>241.5</v>
-      </c>
-      <c r="O116">
-        <f t="shared" si="20"/>
-        <v>186</v>
-      </c>
-      <c r="P116">
-        <f t="shared" si="21"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="117" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M117">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N117">
-        <f t="shared" si="19"/>
-        <v>242.5</v>
-      </c>
-      <c r="O117">
-        <f t="shared" si="20"/>
-        <v>188</v>
-      </c>
-      <c r="P117">
-        <f t="shared" si="21"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="118" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M118">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N118">
-        <f t="shared" si="19"/>
-        <v>243.5</v>
-      </c>
-      <c r="O118">
-        <f t="shared" si="20"/>
-        <v>190</v>
-      </c>
-      <c r="P118">
-        <f t="shared" si="21"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="119" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M119">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N119">
-        <f t="shared" si="19"/>
-        <v>244.5</v>
-      </c>
-      <c r="O119">
-        <f t="shared" si="20"/>
-        <v>192</v>
-      </c>
-      <c r="P119">
-        <f t="shared" si="21"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M120">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N120">
-        <f t="shared" si="19"/>
-        <v>245.5</v>
-      </c>
-      <c r="O120">
-        <f t="shared" si="20"/>
-        <v>194</v>
-      </c>
-      <c r="P120">
-        <f t="shared" si="21"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="121" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M121">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N121">
-        <f t="shared" si="19"/>
-        <v>246.5</v>
-      </c>
-      <c r="O121">
-        <f t="shared" si="20"/>
-        <v>196</v>
-      </c>
-      <c r="P121">
-        <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M122">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N122">
-        <f t="shared" si="19"/>
-        <v>247.5</v>
-      </c>
-      <c r="O122">
-        <f t="shared" si="20"/>
-        <v>198</v>
-      </c>
-      <c r="P122">
-        <f t="shared" si="21"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="123" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M123">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N123">
-        <f t="shared" si="19"/>
-        <v>248.5</v>
-      </c>
-      <c r="O123">
-        <f t="shared" si="20"/>
-        <v>200</v>
-      </c>
-      <c r="P123">
-        <f t="shared" si="21"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="124" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M124">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N124">
-        <f t="shared" si="19"/>
-        <v>249.5</v>
-      </c>
-      <c r="O124">
-        <f t="shared" si="20"/>
-        <v>202</v>
-      </c>
-      <c r="P124">
-        <f t="shared" si="21"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="125" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M125">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N125">
-        <f t="shared" si="19"/>
-        <v>250.5</v>
-      </c>
-      <c r="O125">
-        <f t="shared" si="20"/>
-        <v>204</v>
-      </c>
-      <c r="P125">
-        <f t="shared" si="21"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="126" spans="13:17" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="M126">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N126">
-        <f t="shared" si="19"/>
-        <v>251.5</v>
-      </c>
-      <c r="O126">
-        <f t="shared" si="20"/>
-        <v>206</v>
-      </c>
-      <c r="P126">
-        <f t="shared" si="21"/>
-        <v>125</v>
-      </c>
-      <c r="Q126" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="127" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M127">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N127">
-        <f t="shared" si="19"/>
-        <v>252.5</v>
-      </c>
-      <c r="O127">
-        <f t="shared" si="20"/>
-        <v>208</v>
-      </c>
-      <c r="P127">
-        <f xml:space="preserve"> P126+5</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M128">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N128">
-        <f t="shared" si="19"/>
-        <v>253.5</v>
-      </c>
-      <c r="O128">
-        <f t="shared" si="20"/>
-        <v>210</v>
-      </c>
-      <c r="P128">
-        <f t="shared" si="21"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="129" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M129">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N129">
-        <f t="shared" si="19"/>
-        <v>254.5</v>
-      </c>
-      <c r="O129">
-        <f t="shared" si="20"/>
-        <v>212</v>
-      </c>
-      <c r="P129">
-        <f t="shared" si="21"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="130" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M130">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N130">
-        <f t="shared" si="19"/>
-        <v>255.5</v>
-      </c>
-      <c r="O130">
-        <f t="shared" si="20"/>
-        <v>214</v>
-      </c>
-      <c r="P130">
-        <f t="shared" si="21"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M131">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N131">
-        <f t="shared" si="19"/>
-        <v>256.5</v>
-      </c>
-      <c r="O131">
-        <f t="shared" si="20"/>
-        <v>216</v>
-      </c>
-      <c r="P131">
-        <f t="shared" si="21"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M132">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N132">
-        <f t="shared" si="19"/>
-        <v>257.5</v>
-      </c>
-      <c r="O132">
-        <f t="shared" si="20"/>
-        <v>218</v>
-      </c>
-      <c r="P132">
-        <f t="shared" si="21"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M133">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N133">
-        <f t="shared" si="19"/>
-        <v>258.5</v>
-      </c>
-      <c r="O133">
-        <f t="shared" si="20"/>
-        <v>220</v>
-      </c>
-      <c r="P133">
-        <f t="shared" si="21"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="134" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M134">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N134">
-        <f t="shared" si="19"/>
-        <v>259.5</v>
-      </c>
-      <c r="O134">
-        <f t="shared" si="20"/>
-        <v>222</v>
-      </c>
-      <c r="P134">
-        <f t="shared" si="21"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M135">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N135">
-        <f t="shared" si="19"/>
-        <v>260.5</v>
-      </c>
-      <c r="O135">
-        <f t="shared" si="20"/>
-        <v>224</v>
-      </c>
-      <c r="P135">
-        <f t="shared" si="21"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="136" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M136">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N136">
-        <f t="shared" si="19"/>
-        <v>261.5</v>
-      </c>
-      <c r="O136">
-        <f t="shared" si="20"/>
-        <v>226</v>
-      </c>
-      <c r="P136">
-        <f t="shared" si="21"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="137" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M137">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N137">
-        <f t="shared" si="19"/>
-        <v>262.5</v>
-      </c>
-      <c r="O137">
-        <f t="shared" si="20"/>
-        <v>228</v>
-      </c>
-      <c r="P137">
-        <f t="shared" si="21"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="138" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M138">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N138">
-        <f t="shared" si="19"/>
-        <v>263.5</v>
-      </c>
-      <c r="O138">
-        <f t="shared" si="20"/>
-        <v>230</v>
-      </c>
-      <c r="P138">
-        <f t="shared" si="21"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="139" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M139">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N139">
-        <f t="shared" si="19"/>
-        <v>264.5</v>
-      </c>
-      <c r="O139">
-        <f t="shared" si="20"/>
-        <v>232</v>
-      </c>
-      <c r="P139">
-        <f t="shared" si="21"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="140" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M140">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N140">
-        <f t="shared" si="19"/>
-        <v>265.5</v>
-      </c>
-      <c r="O140">
-        <f t="shared" si="20"/>
-        <v>234</v>
-      </c>
-      <c r="P140">
-        <f t="shared" si="21"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="141" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M141">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N141">
-        <f t="shared" si="19"/>
-        <v>266.5</v>
-      </c>
-      <c r="O141">
-        <f t="shared" si="20"/>
-        <v>236</v>
-      </c>
-      <c r="P141">
-        <f t="shared" si="21"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="142" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M142">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N142">
-        <f t="shared" si="19"/>
-        <v>267.5</v>
-      </c>
-      <c r="O142">
-        <f t="shared" si="20"/>
-        <v>238</v>
-      </c>
-      <c r="P142">
-        <f t="shared" si="21"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="143" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M143">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N143">
-        <f t="shared" si="19"/>
-        <v>268.5</v>
-      </c>
-      <c r="O143">
-        <f t="shared" si="20"/>
-        <v>240</v>
-      </c>
-      <c r="P143">
-        <f t="shared" si="21"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="144" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M144">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N144">
-        <f t="shared" si="19"/>
-        <v>269.5</v>
-      </c>
-      <c r="O144">
-        <f t="shared" si="20"/>
-        <v>242</v>
-      </c>
-      <c r="P144">
-        <f t="shared" si="21"/>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="145" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M145">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N145">
-        <f t="shared" si="19"/>
-        <v>270.5</v>
-      </c>
-      <c r="O145">
-        <f t="shared" si="20"/>
-        <v>244</v>
-      </c>
-      <c r="P145">
-        <f t="shared" si="21"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="146" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M146">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N146">
-        <f t="shared" si="19"/>
-        <v>271.5</v>
-      </c>
-      <c r="O146">
-        <f t="shared" si="20"/>
-        <v>246</v>
-      </c>
-      <c r="P146">
-        <f t="shared" si="21"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="147" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M147">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N147">
-        <f t="shared" si="19"/>
-        <v>272.5</v>
-      </c>
-      <c r="O147">
-        <f t="shared" si="20"/>
-        <v>248</v>
-      </c>
-      <c r="P147">
-        <f t="shared" si="21"/>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="148" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M148">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N148">
-        <f t="shared" si="19"/>
-        <v>273.5</v>
-      </c>
-      <c r="O148">
-        <f t="shared" si="20"/>
-        <v>250</v>
-      </c>
-      <c r="P148">
-        <f t="shared" si="21"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="149" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M149">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N149">
-        <f t="shared" si="19"/>
-        <v>274.5</v>
-      </c>
-      <c r="O149">
-        <f t="shared" si="20"/>
-        <v>252</v>
-      </c>
-      <c r="P149">
-        <f t="shared" si="21"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="150" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M150">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N150">
-        <f t="shared" si="19"/>
-        <v>275.5</v>
-      </c>
-      <c r="O150">
-        <f t="shared" si="20"/>
-        <v>254</v>
-      </c>
-      <c r="P150">
-        <f t="shared" si="21"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="151" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M151">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N151">
-        <f t="shared" si="19"/>
-        <v>276.5</v>
-      </c>
-      <c r="O151">
-        <f t="shared" si="20"/>
-        <v>256</v>
-      </c>
-      <c r="P151">
-        <f xml:space="preserve"> P150+5</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="152" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M152">
-        <f t="shared" si="18"/>
-        <v>255</v>
-      </c>
-      <c r="N152">
-        <f t="shared" si="19"/>
-        <v>277.5</v>
-      </c>
-      <c r="O152">
-        <f t="shared" si="20"/>
-        <v>258</v>
-      </c>
-      <c r="P152">
-        <f xml:space="preserve"> P151+5</f>
-        <v>255</v>
+    </row>
+    <row r="126" spans="17:17" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="Q126" s="4"/>
+    </row>
+    <row r="227" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G227" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/doc/RGB_farbwerteSonnenaufgang.xlsx
+++ b/doc/RGB_farbwerteSonnenaufgang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darvin Windlin\Documents\Projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F17DBC-B75D-47CB-959A-64DEDB8CD928}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C11BF20-4A5B-41BB-B926-6B587196E0BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{65B07C6F-0C0D-4F12-A361-1901765B9E28}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3448,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2419A3E3-2D13-4F6E-A490-C343F3B666DD}">
   <dimension ref="A1:AA227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="E86" workbookViewId="0">
+      <selection activeCell="X105" sqref="X105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,7 +3739,7 @@
         <v>157.05000000000001</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA3:AA66" si="11" xml:space="preserve"> AA3 + 2.5</f>
+        <f t="shared" ref="AA4:AA66" si="11" xml:space="preserve"> AA3 + 2.5</f>
         <v>7.5</v>
       </c>
     </row>
